--- a/Results/Act/Lifetime/Results_world_act_life_Min.xlsx
+++ b/Results/Act/Lifetime/Results_world_act_life_Min.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Crit_met_world" sheetId="1" r:id="rId1"/>
+    <sheet name="Annual production" sheetId="1" r:id="rId1"/>
+    <sheet name="Cumulative" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>World</t>
   </si>
@@ -678,274 +679,274 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>262.031773792716</v>
+        <v>262.0317682853503</v>
       </c>
       <c r="E2">
-        <v>302.6233737408875</v>
+        <v>302.6233642242591</v>
       </c>
       <c r="F2">
-        <v>500.2462757635802</v>
+        <v>500.2462576362724</v>
       </c>
       <c r="G2">
-        <v>370.6346942612861</v>
+        <v>370.6346607353748</v>
       </c>
       <c r="H2">
-        <v>949.0429298925563</v>
+        <v>949.0428764698527</v>
       </c>
       <c r="I2">
-        <v>545.3739906693614</v>
+        <v>545.3738810290037</v>
       </c>
       <c r="J2">
-        <v>608.7260805222717</v>
+        <v>608.7258221466811</v>
       </c>
       <c r="K2">
-        <v>700.5601839351044</v>
+        <v>700.5594861532037</v>
       </c>
       <c r="L2">
-        <v>559.6603596628599</v>
+        <v>559.6585462093728</v>
       </c>
       <c r="M2">
-        <v>689.6209234497742</v>
+        <v>689.6159144598863</v>
       </c>
       <c r="N2">
-        <v>360.4817465346806</v>
+        <v>360.4689752466271</v>
       </c>
       <c r="O2">
-        <v>409.3350333739135</v>
+        <v>409.3123037495649</v>
       </c>
       <c r="P2">
-        <v>806.7614193727405</v>
+        <v>806.7291727351248</v>
       </c>
       <c r="Q2">
-        <v>805.0129156908257</v>
+        <v>804.9865869597304</v>
       </c>
       <c r="R2">
-        <v>797.0529269384112</v>
+        <v>797.0376541263714</v>
       </c>
       <c r="S2">
-        <v>1984.782934142104</v>
+        <v>1984.767140553348</v>
       </c>
       <c r="T2">
-        <v>2001.24818837933</v>
+        <v>2001.223861819476</v>
       </c>
       <c r="U2">
-        <v>2018.229933151631</v>
+        <v>2018.196800392989</v>
       </c>
       <c r="V2">
-        <v>2039.864270358599</v>
+        <v>2039.818580594265</v>
       </c>
       <c r="W2">
-        <v>2063.203827543364</v>
+        <v>2063.144310389409</v>
       </c>
       <c r="X2">
-        <v>1906.85459658599</v>
+        <v>1906.786519519811</v>
       </c>
       <c r="Y2">
-        <v>1935.074367865176</v>
+        <v>1934.987828013226</v>
       </c>
       <c r="Z2">
-        <v>2007.600400582382</v>
+        <v>2007.458456071593</v>
       </c>
       <c r="AA2">
-        <v>2109.169269013997</v>
+        <v>2108.9477558193</v>
       </c>
       <c r="AB2">
-        <v>2222.930230409081</v>
+        <v>2222.619082121849</v>
       </c>
       <c r="AC2">
-        <v>964.8691070338866</v>
+        <v>964.4897300526974</v>
       </c>
       <c r="AD2">
-        <v>928.803545221698</v>
+        <v>928.4602048536987</v>
       </c>
       <c r="AE2">
-        <v>905.2263233129542</v>
+        <v>904.9089473851458</v>
       </c>
       <c r="AF2">
-        <v>899.7458424474552</v>
+        <v>899.4397347746852</v>
       </c>
       <c r="AG2">
-        <v>873.670223942394</v>
+        <v>873.3930108700458</v>
       </c>
       <c r="AH2">
-        <v>658.5239181690335</v>
+        <v>658.2779646745291</v>
       </c>
       <c r="AI2">
-        <v>657.5997011257947</v>
+        <v>657.362695080615</v>
       </c>
       <c r="AJ2">
-        <v>784.5940213283308</v>
+        <v>784.2596263367627</v>
       </c>
       <c r="AK2">
-        <v>985.4462922574135</v>
+        <v>984.9532559232596</v>
       </c>
       <c r="AL2">
-        <v>1204.379493677847</v>
+        <v>1203.712982292341</v>
       </c>
       <c r="AM2">
-        <v>1546.546218341912</v>
+        <v>1545.603321707944</v>
       </c>
       <c r="AN2">
-        <v>1932.146626685058</v>
+        <v>1930.89093433926</v>
       </c>
       <c r="AO2">
-        <v>2084.130502592484</v>
+        <v>2082.757076458424</v>
       </c>
       <c r="AP2">
-        <v>2105.014169986134</v>
+        <v>2103.632083774768</v>
       </c>
       <c r="AQ2">
-        <v>2106.186433042753</v>
+        <v>2104.811377018838</v>
       </c>
       <c r="AR2">
-        <v>2084.106638793327</v>
+        <v>2082.757296675027</v>
       </c>
       <c r="AS2">
-        <v>2058.617279636563</v>
+        <v>2057.295445922483</v>
       </c>
       <c r="AT2">
-        <v>2069.801461138196</v>
+        <v>2068.475402714202</v>
       </c>
       <c r="AU2">
-        <v>2071.624561891912</v>
+        <v>2070.301120594377</v>
       </c>
       <c r="AV2">
-        <v>1974.026523043608</v>
+        <v>1972.796702144474</v>
       </c>
       <c r="AW2">
-        <v>1666.697133839113</v>
+        <v>1665.729939291914</v>
       </c>
       <c r="AX2">
-        <v>1484.437185950119</v>
+        <v>1483.805361204144</v>
       </c>
       <c r="AY2">
-        <v>1313.986350246155</v>
+        <v>1313.499562732983</v>
       </c>
       <c r="AZ2">
-        <v>1273.491669004744</v>
+        <v>1273.041366811011</v>
       </c>
       <c r="BA2">
-        <v>1228.464013492643</v>
+        <v>1228.054374814504</v>
       </c>
       <c r="BB2">
-        <v>1140.979292791616</v>
+        <v>1140.624591275029</v>
       </c>
       <c r="BC2">
-        <v>1104.737226711863</v>
+        <v>1104.417736985704</v>
       </c>
       <c r="BD2">
-        <v>1167.222703131239</v>
+        <v>1166.85670886048</v>
       </c>
       <c r="BE2">
-        <v>1327.31178857026</v>
+        <v>1326.818534868678</v>
       </c>
       <c r="BF2">
-        <v>1550.272833609854</v>
+        <v>1549.600508388307</v>
       </c>
       <c r="BG2">
-        <v>1790.192679420338</v>
+        <v>1789.306021590324</v>
       </c>
       <c r="BH2">
-        <v>2069.854738937879</v>
+        <v>2068.743027201297</v>
       </c>
       <c r="BI2">
-        <v>2288.136645126133</v>
+        <v>2286.851472604326</v>
       </c>
       <c r="BJ2">
-        <v>2391.443556897138</v>
+        <v>2390.081174219843</v>
       </c>
       <c r="BK2">
-        <v>2414.843752185448</v>
+        <v>2413.470931436405</v>
       </c>
       <c r="BL2">
-        <v>2389.789650633272</v>
+        <v>2388.430395026263</v>
       </c>
       <c r="BM2">
-        <v>2375.579486443108</v>
+        <v>2374.241068184583</v>
       </c>
       <c r="BN2">
-        <v>2358.052759825045</v>
+        <v>2356.737621996688</v>
       </c>
       <c r="BO2">
-        <v>2324.300377114054</v>
+        <v>2323.021720354842</v>
       </c>
       <c r="BP2">
-        <v>2237.252080861052</v>
+        <v>2236.054085043981</v>
       </c>
       <c r="BQ2">
-        <v>2061.626551209905</v>
+        <v>2060.571714094574</v>
       </c>
       <c r="BR2">
-        <v>1866.369377327347</v>
+        <v>1865.485307629872</v>
       </c>
       <c r="BS2">
-        <v>1711.662929888631</v>
+        <v>1710.915361882257</v>
       </c>
       <c r="BT2">
-        <v>1612.647813122898</v>
+        <v>1611.989896437293</v>
       </c>
       <c r="BU2">
-        <v>1556.612772196201</v>
+        <v>1556.008381897523</v>
       </c>
       <c r="BV2">
-        <v>1504.248837390711</v>
+        <v>1503.683890772746</v>
       </c>
       <c r="BW2">
-        <v>1487.82562669972</v>
+        <v>1487.281381672211</v>
       </c>
       <c r="BX2">
-        <v>1530.650440617097</v>
+        <v>1530.077462697183</v>
       </c>
       <c r="BY2">
-        <v>1651.36525156052</v>
+        <v>1650.698609861545</v>
       </c>
       <c r="BZ2">
-        <v>1837.788632945302</v>
+        <v>1836.973643808476</v>
       </c>
       <c r="CA2">
-        <v>2047.878259883424</v>
+        <v>2046.883983656047</v>
       </c>
       <c r="CB2">
-        <v>2279.160881131145</v>
+        <v>2277.981745283941</v>
       </c>
       <c r="CC2">
-        <v>2483.943769282796</v>
+        <v>2482.602200322169</v>
       </c>
       <c r="CD2">
-        <v>2623.641594333707</v>
+        <v>2622.192253617016</v>
       </c>
       <c r="CE2">
-        <v>2687.105105774833</v>
+        <v>2685.611927148006</v>
       </c>
       <c r="CF2">
-        <v>2680.987748449141</v>
+        <v>2679.496168904867</v>
       </c>
       <c r="CG2">
-        <v>2665.012621109186</v>
+        <v>2663.544319253289</v>
       </c>
       <c r="CH2">
-        <v>2638.111931717876</v>
+        <v>2636.676033782246</v>
       </c>
       <c r="CI2">
-        <v>2593.115518546831</v>
+        <v>2591.727090472025</v>
       </c>
       <c r="CJ2">
-        <v>2513.333687285353</v>
+        <v>2512.021700320286</v>
       </c>
       <c r="CK2">
-        <v>2367.204656790875</v>
+        <v>2366.006662055869</v>
       </c>
       <c r="CL2">
-        <v>2211.658081517701</v>
+        <v>2210.600044717793</v>
       </c>
       <c r="CM2">
-        <v>2062.282195006496</v>
+        <v>2061.358737016764</v>
       </c>
       <c r="CN2">
-        <v>1948.413466677455</v>
+        <v>1947.594682657716</v>
       </c>
       <c r="CO2">
-        <v>1875.355753485172</v>
+        <v>1874.607332964151</v>
       </c>
     </row>
     <row r="3" spans="1:93">
@@ -955,274 +956,274 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>16.49093932838874</v>
+        <v>16.49093896605874</v>
       </c>
       <c r="E3">
-        <v>19.15979926881357</v>
+        <v>19.1597986449497</v>
       </c>
       <c r="F3">
-        <v>32.31390472826249</v>
+        <v>32.31390355406209</v>
       </c>
       <c r="G3">
-        <v>23.60961960504062</v>
+        <v>23.60961750650776</v>
       </c>
       <c r="H3">
-        <v>62.55675553490512</v>
+        <v>62.55675246090161</v>
       </c>
       <c r="I3">
-        <v>35.43323659609103</v>
+        <v>35.43323129430858</v>
       </c>
       <c r="J3">
-        <v>39.57573281171886</v>
+        <v>39.57572345756608</v>
       </c>
       <c r="K3">
-        <v>45.59062951900268</v>
+        <v>45.59061217934736</v>
       </c>
       <c r="L3">
-        <v>36.17269403534864</v>
+        <v>36.17266342020631</v>
       </c>
       <c r="M3">
-        <v>44.82971311444946</v>
+        <v>44.82965259398136</v>
       </c>
       <c r="N3">
-        <v>22.57855785682615</v>
+        <v>22.57844147794022</v>
       </c>
       <c r="O3">
-        <v>26.00850152922611</v>
+        <v>26.00834279362792</v>
       </c>
       <c r="P3">
-        <v>52.6208035880287</v>
+        <v>52.62061196484657</v>
       </c>
       <c r="Q3">
-        <v>54.86339385271235</v>
+        <v>54.86320646303941</v>
       </c>
       <c r="R3">
-        <v>56.61671746264459</v>
+        <v>56.61652953597341</v>
       </c>
       <c r="S3">
-        <v>150.6108432524869</v>
+        <v>150.6106547208001</v>
       </c>
       <c r="T3">
-        <v>158.2043799538071</v>
+        <v>158.2041981501316</v>
       </c>
       <c r="U3">
-        <v>165.9350662114016</v>
+        <v>165.934904168164</v>
       </c>
       <c r="V3">
-        <v>174.1719302410609</v>
+        <v>174.1718002676267</v>
       </c>
       <c r="W3">
-        <v>182.692938934372</v>
+        <v>182.6928568024987</v>
       </c>
       <c r="X3">
-        <v>168.4254810732253</v>
+        <v>168.4253928328623</v>
       </c>
       <c r="Y3">
-        <v>170.8960004812396</v>
+        <v>170.8959048264383</v>
       </c>
       <c r="Z3">
-        <v>177.4138324461648</v>
+        <v>177.4137262133403</v>
       </c>
       <c r="AA3">
-        <v>186.5846478179877</v>
+        <v>186.5845285642276</v>
       </c>
       <c r="AB3">
-        <v>196.8689039777329</v>
+        <v>196.868767280396</v>
       </c>
       <c r="AC3">
-        <v>82.81139868448105</v>
+        <v>82.81124234458726</v>
       </c>
       <c r="AD3">
-        <v>79.40592158066491</v>
+        <v>79.40574690281237</v>
       </c>
       <c r="AE3">
-        <v>77.14074680050035</v>
+        <v>77.1405472853793</v>
       </c>
       <c r="AF3">
-        <v>76.52784482763695</v>
+        <v>76.52760913326279</v>
       </c>
       <c r="AG3">
-        <v>74.03222088509052</v>
+        <v>74.03193340704497</v>
       </c>
       <c r="AH3">
-        <v>54.39800341692645</v>
+        <v>54.39764586747643</v>
       </c>
       <c r="AI3">
-        <v>54.19355079869684</v>
+        <v>54.1930995170656</v>
       </c>
       <c r="AJ3">
-        <v>65.67282306955974</v>
+        <v>65.67225072964163</v>
       </c>
       <c r="AK3">
-        <v>83.89790872991712</v>
+        <v>83.89719770304414</v>
       </c>
       <c r="AL3">
-        <v>103.7737473086421</v>
+        <v>103.7728849120975</v>
       </c>
       <c r="AM3">
-        <v>134.9042343198538</v>
+        <v>134.9031845262048</v>
       </c>
       <c r="AN3">
-        <v>170.0019548556427</v>
+        <v>170.0007092592207</v>
       </c>
       <c r="AO3">
-        <v>183.7631294937238</v>
+        <v>183.7617575612855</v>
       </c>
       <c r="AP3">
-        <v>185.5514300405006</v>
+        <v>185.5499790441372</v>
       </c>
       <c r="AQ3">
-        <v>185.5408829475621</v>
+        <v>185.5393755898153</v>
       </c>
       <c r="AR3">
-        <v>183.405059486084</v>
+        <v>183.4035237142612</v>
       </c>
       <c r="AS3">
-        <v>180.9599542163727</v>
+        <v>180.9584163093854</v>
       </c>
       <c r="AT3">
-        <v>181.8666971477584</v>
+        <v>181.8651749938106</v>
       </c>
       <c r="AU3">
-        <v>181.9206368517944</v>
+        <v>181.9191591973357</v>
       </c>
       <c r="AV3">
-        <v>172.8834166150234</v>
+        <v>172.8820320525195</v>
       </c>
       <c r="AW3">
-        <v>144.6897705646956</v>
+        <v>144.6885420028464</v>
       </c>
       <c r="AX3">
-        <v>127.7762712534471</v>
+        <v>127.7752210921924</v>
       </c>
       <c r="AY3">
-        <v>112.0874191514676</v>
+        <v>112.086481625237</v>
       </c>
       <c r="AZ3">
-        <v>108.2675052325612</v>
+        <v>108.2666396223983</v>
       </c>
       <c r="BA3">
-        <v>104.0325987747871</v>
+        <v>104.0317944035872</v>
       </c>
       <c r="BB3">
-        <v>95.92619736479244</v>
+        <v>95.92544042042171</v>
       </c>
       <c r="BC3">
-        <v>92.47955197248513</v>
+        <v>92.47881797462286</v>
       </c>
       <c r="BD3">
-        <v>98.04895732859838</v>
+        <v>98.04820704727877</v>
       </c>
       <c r="BE3">
-        <v>112.5320820007939</v>
+        <v>112.5312807693968</v>
       </c>
       <c r="BF3">
-        <v>132.7566578186517</v>
+        <v>132.7557788764257</v>
       </c>
       <c r="BG3">
-        <v>154.5386556050464</v>
+        <v>154.5376759722745</v>
       </c>
       <c r="BH3">
-        <v>179.9310333807868</v>
+        <v>179.9299406267546</v>
       </c>
       <c r="BI3">
-        <v>199.7168999659582</v>
+        <v>199.7157056804084</v>
       </c>
       <c r="BJ3">
-        <v>209.0015211921348</v>
+        <v>209.000254811843</v>
       </c>
       <c r="BK3">
-        <v>210.9881103176413</v>
+        <v>210.9867952989969</v>
       </c>
       <c r="BL3">
-        <v>208.5563106512388</v>
+        <v>208.5549600998418</v>
       </c>
       <c r="BM3">
-        <v>207.1015642307528</v>
+        <v>207.100188853034</v>
       </c>
       <c r="BN3">
-        <v>205.3447657002274</v>
+        <v>205.3433769009481</v>
       </c>
       <c r="BO3">
-        <v>202.1069332683087</v>
+        <v>202.1055465681011</v>
       </c>
       <c r="BP3">
-        <v>194.0021631952869</v>
+        <v>194.0008022967319</v>
       </c>
       <c r="BQ3">
-        <v>177.8061090562886</v>
+        <v>177.8047997872679</v>
       </c>
       <c r="BR3">
-        <v>159.8074315647545</v>
+        <v>159.8061847298764</v>
       </c>
       <c r="BS3">
-        <v>145.5124536261389</v>
+        <v>145.5112580643116</v>
       </c>
       <c r="BT3">
-        <v>136.3039888985087</v>
+        <v>136.3028290767287</v>
       </c>
       <c r="BU3">
-        <v>131.0210558915976</v>
+        <v>131.0199197471981</v>
       </c>
       <c r="BV3">
-        <v>126.0730262624511</v>
+        <v>126.0719077555453</v>
       </c>
       <c r="BW3">
-        <v>124.3978913571106</v>
+        <v>124.3967824950607</v>
       </c>
       <c r="BX3">
-        <v>128.1340515859155</v>
+        <v>128.1329359439135</v>
       </c>
       <c r="BY3">
-        <v>138.9842496123374</v>
+        <v>138.9831072621315</v>
       </c>
       <c r="BZ3">
-        <v>155.8358445242412</v>
+        <v>155.8346581198733</v>
       </c>
       <c r="CA3">
-        <v>174.848455518603</v>
+        <v>174.8472126521408</v>
       </c>
       <c r="CB3">
-        <v>195.786267480978</v>
+        <v>195.7849616780102</v>
       </c>
       <c r="CC3">
-        <v>214.3033289808776</v>
+        <v>214.3019624063324</v>
       </c>
       <c r="CD3">
-        <v>226.8755593615281</v>
+        <v>226.8741453674928</v>
       </c>
       <c r="CE3">
-        <v>232.4847689344394</v>
+        <v>232.4833252534179</v>
       </c>
       <c r="CF3">
-        <v>231.7384698085937</v>
+        <v>231.7370100725707</v>
       </c>
       <c r="CG3">
-        <v>230.0805782577442</v>
+        <v>230.0791105143904</v>
       </c>
       <c r="CH3">
-        <v>227.4250338844189</v>
+        <v>227.423563943363</v>
       </c>
       <c r="CI3">
-        <v>223.1170374762301</v>
+        <v>223.1155739846927</v>
       </c>
       <c r="CJ3">
-        <v>215.6322352584926</v>
+        <v>215.6307909824674</v>
       </c>
       <c r="CK3">
-        <v>202.0924044982249</v>
+        <v>202.0909934044935</v>
       </c>
       <c r="CL3">
-        <v>187.6769883306751</v>
+        <v>187.6756186862057</v>
       </c>
       <c r="CM3">
-        <v>173.8250908936694</v>
+        <v>173.8237595551433</v>
       </c>
       <c r="CN3">
-        <v>163.2161083688543</v>
+        <v>163.2148040877349</v>
       </c>
       <c r="CO3">
-        <v>156.3345022776638</v>
+        <v>156.3332129670783</v>
       </c>
     </row>
     <row r="4" spans="1:93">
@@ -1232,274 +1233,274 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>26474578.56306585</v>
+        <v>26474515.04430017</v>
       </c>
       <c r="E4">
-        <v>26777561.01108609</v>
+        <v>26777451.63258485</v>
       </c>
       <c r="F4">
-        <v>29376832.30614666</v>
+        <v>29376626.37716623</v>
       </c>
       <c r="G4">
-        <v>29468752.080509</v>
+        <v>29468383.74498511</v>
       </c>
       <c r="H4">
-        <v>26834356.04452911</v>
+        <v>26833815.44544359</v>
       </c>
       <c r="I4">
-        <v>26322170.76398994</v>
+        <v>26321234.43343447</v>
       </c>
       <c r="J4">
-        <v>29032613.06414064</v>
+        <v>29030947.35363447</v>
       </c>
       <c r="K4">
-        <v>32857475.73230129</v>
+        <v>32854344.92780009</v>
       </c>
       <c r="L4">
-        <v>32642938.01035918</v>
+        <v>32637305.81751369</v>
       </c>
       <c r="M4">
-        <v>34742033.83246098</v>
+        <v>34730686.68437542</v>
       </c>
       <c r="N4">
-        <v>37630907.50681724</v>
+        <v>37608791.90053114</v>
       </c>
       <c r="O4">
-        <v>34940887.90483771</v>
+        <v>34910588.42242467</v>
       </c>
       <c r="P4">
-        <v>38802067.29387109</v>
+        <v>38765666.32506852</v>
       </c>
       <c r="Q4">
-        <v>39935467.98975176</v>
+        <v>39897193.33955479</v>
       </c>
       <c r="R4">
-        <v>41073931.59339792</v>
+        <v>41031644.50969075</v>
       </c>
       <c r="S4">
-        <v>45705412.76000252</v>
+        <v>45657213.60056385</v>
       </c>
       <c r="T4">
-        <v>46617261.97720437</v>
+        <v>46562253.28773832</v>
       </c>
       <c r="U4">
-        <v>47524397.26971681</v>
+        <v>47462741.43231918</v>
       </c>
       <c r="V4">
-        <v>48428933.95115245</v>
+        <v>48359768.74957957</v>
       </c>
       <c r="W4">
-        <v>49330081.64280667</v>
+        <v>49252649.98255913</v>
       </c>
       <c r="X4">
-        <v>50504730.8744979</v>
+        <v>50421553.57219191</v>
       </c>
       <c r="Y4">
-        <v>51855429.3536066</v>
+        <v>51765273.46774736</v>
       </c>
       <c r="Z4">
-        <v>53209988.82472997</v>
+        <v>53109867.03200106</v>
       </c>
       <c r="AA4">
-        <v>54567049.34262286</v>
+        <v>54454659.3877451</v>
       </c>
       <c r="AB4">
-        <v>55929421.42425212</v>
+        <v>55800593.82280152</v>
       </c>
       <c r="AC4">
-        <v>55081305.9530514</v>
+        <v>54933980.80267396</v>
       </c>
       <c r="AD4">
-        <v>56446039.80451108</v>
+        <v>56281478.04773623</v>
       </c>
       <c r="AE4">
-        <v>57816462.62014048</v>
+        <v>57628554.90684805</v>
       </c>
       <c r="AF4">
-        <v>59199200.37403362</v>
+        <v>58977266.2102018</v>
       </c>
       <c r="AG4">
-        <v>60600824.14838327</v>
+        <v>60330158.87259857</v>
       </c>
       <c r="AH4">
-        <v>61663403.75823689</v>
+        <v>61326769.95929112</v>
       </c>
       <c r="AI4">
-        <v>63140950.29074232</v>
+        <v>62716030.38665632</v>
       </c>
       <c r="AJ4">
-        <v>64653558.85873549</v>
+        <v>64114566.22318041</v>
       </c>
       <c r="AK4">
-        <v>66187563.17768327</v>
+        <v>65517873.3314863</v>
       </c>
       <c r="AL4">
-        <v>67737642.95000105</v>
+        <v>66925294.31594507</v>
       </c>
       <c r="AM4">
-        <v>69314934.54582374</v>
+        <v>68325868.71709569</v>
       </c>
       <c r="AN4">
-        <v>70906301.69571881</v>
+        <v>69732559.21072917</v>
       </c>
       <c r="AO4">
-        <v>72394111.41708566</v>
+        <v>71101352.0485733</v>
       </c>
       <c r="AP4">
-        <v>73815715.47947723</v>
+        <v>72448582.47683044</v>
       </c>
       <c r="AQ4">
-        <v>75211850.43159555</v>
+        <v>73791726.9501071</v>
       </c>
       <c r="AR4">
-        <v>76562068.74335879</v>
+        <v>75115279.07512683</v>
       </c>
       <c r="AS4">
-        <v>77884530.24386525</v>
+        <v>76435809.63841678</v>
       </c>
       <c r="AT4">
-        <v>79192336.29179768</v>
+        <v>77758482.84737636</v>
       </c>
       <c r="AU4">
-        <v>80467795.00824785</v>
+        <v>79075883.44156414</v>
       </c>
       <c r="AV4">
-        <v>81878813.04874153</v>
+        <v>80574703.38516565</v>
       </c>
       <c r="AW4">
-        <v>83145761.62663688</v>
+        <v>81988876.59319182</v>
       </c>
       <c r="AX4">
-        <v>84436822.24346258</v>
+        <v>83448302.91259919</v>
       </c>
       <c r="AY4">
-        <v>85721410.94506587</v>
+        <v>84839049.0581449</v>
       </c>
       <c r="AZ4">
-        <v>87067246.02524531</v>
+        <v>86252550.54884836</v>
       </c>
       <c r="BA4">
-        <v>88424796.21138549</v>
+        <v>87667714.3782149</v>
       </c>
       <c r="BB4">
-        <v>89842903.77408245</v>
+        <v>89130439.99314675</v>
       </c>
       <c r="BC4">
-        <v>91331873.21555363</v>
+        <v>90640958.16830376</v>
       </c>
       <c r="BD4">
-        <v>92871348.57797192</v>
+        <v>92164971.33742468</v>
       </c>
       <c r="BE4">
-        <v>94454155.70441805</v>
+        <v>93699619.90698524</v>
       </c>
       <c r="BF4">
-        <v>96069223.45501374</v>
+        <v>95241300.49958932</v>
       </c>
       <c r="BG4">
-        <v>97747011.5760552</v>
+        <v>96824033.80084758</v>
       </c>
       <c r="BH4">
-        <v>99480291.47104742</v>
+        <v>98450549.43388543</v>
       </c>
       <c r="BI4">
-        <v>101192535.0208756</v>
+        <v>100067016.7079893</v>
       </c>
       <c r="BJ4">
-        <v>102858146.9182577</v>
+        <v>101664700.2552755</v>
       </c>
       <c r="BK4">
-        <v>104488195.3004198</v>
+        <v>103248996.1843876</v>
       </c>
       <c r="BL4">
-        <v>106119472.9010009</v>
+        <v>104846894.7760862</v>
       </c>
       <c r="BM4">
-        <v>107768696.4190426</v>
+        <v>106472833.3237644</v>
       </c>
       <c r="BN4">
-        <v>109404391.0067879</v>
+        <v>108095990.0931329</v>
       </c>
       <c r="BO4">
-        <v>111020655.7209428</v>
+        <v>109714352.4204591</v>
       </c>
       <c r="BP4">
-        <v>112605058.3009739</v>
+        <v>111323224.6778945</v>
       </c>
       <c r="BQ4">
-        <v>114241359.9361333</v>
+        <v>113008379.5291432</v>
       </c>
       <c r="BR4">
-        <v>115887266.3108949</v>
+        <v>114713318.8095747</v>
       </c>
       <c r="BS4">
-        <v>117554455.8345809</v>
+        <v>116428953.5388761</v>
       </c>
       <c r="BT4">
-        <v>119248786.428114</v>
+        <v>118157014.6488524</v>
       </c>
       <c r="BU4">
-        <v>120963809.243946</v>
+        <v>119894343.9781059</v>
       </c>
       <c r="BV4">
-        <v>122746322.6109044</v>
+        <v>121693445.0289205</v>
       </c>
       <c r="BW4">
-        <v>124562214.3756507</v>
+        <v>123518368.3360106</v>
       </c>
       <c r="BX4">
-        <v>126402152.7580503</v>
+        <v>125351816.6727316</v>
       </c>
       <c r="BY4">
-        <v>128270517.5392623</v>
+        <v>127194864.4213801</v>
       </c>
       <c r="BZ4">
-        <v>130162612.8803793</v>
+        <v>129045263.8499379</v>
       </c>
       <c r="CA4">
-        <v>132133331.7130014</v>
+        <v>130962581.4082857</v>
       </c>
       <c r="CB4">
-        <v>134132940.0426946</v>
+        <v>132902695.3858533</v>
       </c>
       <c r="CC4">
-        <v>136126026.6628976</v>
+        <v>134838363.1552087</v>
       </c>
       <c r="CD4">
-        <v>138095722.1753002</v>
+        <v>136763291.0727518</v>
       </c>
       <c r="CE4">
-        <v>140035890.6773759</v>
+        <v>138675479.9409528</v>
       </c>
       <c r="CF4">
-        <v>142018405.1978872</v>
+        <v>140642917.8598868</v>
       </c>
       <c r="CG4">
-        <v>144013045.5335048</v>
+        <v>142630096.1497959</v>
       </c>
       <c r="CH4">
-        <v>145998916.9005022</v>
+        <v>144613996.5522704</v>
       </c>
       <c r="CI4">
-        <v>147972311.433581</v>
+        <v>146593588.735285</v>
       </c>
       <c r="CJ4">
-        <v>149927454.6925204</v>
+        <v>148566988.6721251</v>
       </c>
       <c r="CK4">
-        <v>151912868.3947757</v>
+        <v>150583850.3611889</v>
       </c>
       <c r="CL4">
-        <v>153922143.3830947</v>
+        <v>152632372.4604721</v>
       </c>
       <c r="CM4">
-        <v>155938737.1832642</v>
+        <v>154685221.3654053</v>
       </c>
       <c r="CN4">
-        <v>157975069.3692474</v>
+        <v>156747152.6215826</v>
       </c>
       <c r="CO4">
-        <v>160032108.2802167</v>
+        <v>158818344.1697731</v>
       </c>
     </row>
     <row r="5" spans="1:93">
@@ -1509,274 +1510,1675 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>1695270.695623879</v>
+        <v>1695270.008317868</v>
       </c>
       <c r="E5">
-        <v>996789.5745199771</v>
+        <v>996788.3920453178</v>
       </c>
       <c r="F5">
-        <v>500701.698657277</v>
+        <v>500699.4783617422</v>
       </c>
       <c r="G5">
-        <v>309438.5821154134</v>
+        <v>309434.6390578158</v>
       </c>
       <c r="H5">
-        <v>291356.5900555724</v>
+        <v>291350.9020436114</v>
       </c>
       <c r="I5">
-        <v>210269.5262052951</v>
+        <v>210260.0473429782</v>
       </c>
       <c r="J5">
-        <v>177161.4053260728</v>
+        <v>177145.8309287218</v>
       </c>
       <c r="K5">
-        <v>232070.8926415911</v>
+        <v>232045.6389235696</v>
       </c>
       <c r="L5">
-        <v>414585.2086622978</v>
+        <v>414549.3824769554</v>
       </c>
       <c r="M5">
-        <v>376510.0478380396</v>
+        <v>376457.1445355814</v>
       </c>
       <c r="N5">
-        <v>480395.8592825593</v>
+        <v>480319.001296777</v>
       </c>
       <c r="O5">
-        <v>600005.558505528</v>
+        <v>599912.2837993071</v>
       </c>
       <c r="P5">
-        <v>3620614.105145035</v>
+        <v>3620487.034986918</v>
       </c>
       <c r="Q5">
-        <v>3723351.540654809</v>
+        <v>3723187.209603132</v>
       </c>
       <c r="R5">
-        <v>3831928.226376039</v>
+        <v>3831720.787657478</v>
       </c>
       <c r="S5">
-        <v>12129835.13541055</v>
+        <v>12129579.2527987</v>
       </c>
       <c r="T5">
-        <v>12405842.46063555</v>
+        <v>12405533.67423403</v>
       </c>
       <c r="U5">
-        <v>12686326.35201324</v>
+        <v>12685961.33797061</v>
       </c>
       <c r="V5">
-        <v>12970507.55625028</v>
+        <v>12970084.0773621</v>
       </c>
       <c r="W5">
-        <v>13257958.34666108</v>
+        <v>13257474.77459639</v>
       </c>
       <c r="X5">
-        <v>12732565.79887708</v>
+        <v>12732020.08337051</v>
       </c>
       <c r="Y5">
-        <v>12790761.08663356</v>
+        <v>12790149.16205798</v>
       </c>
       <c r="Z5">
-        <v>12856307.49518142</v>
+        <v>12855620.97644362</v>
       </c>
       <c r="AA5">
-        <v>12935507.99475878</v>
+        <v>12934731.307229</v>
       </c>
       <c r="AB5">
-        <v>13037505.55168824</v>
+        <v>13036612.69174759</v>
       </c>
       <c r="AC5">
-        <v>2883791.06601545</v>
+        <v>2882742.376901607</v>
       </c>
       <c r="AD5">
-        <v>3069650.914153568</v>
+        <v>3068390.402897757</v>
       </c>
       <c r="AE5">
-        <v>3320219.562894651</v>
+        <v>3318673.418934481</v>
       </c>
       <c r="AF5">
-        <v>3650748.2699421</v>
+        <v>3648825.286271404</v>
       </c>
       <c r="AG5">
-        <v>4074107.385190915</v>
+        <v>4071701.67415186</v>
       </c>
       <c r="AH5">
-        <v>2652157.928606843</v>
+        <v>2649154.029065201</v>
       </c>
       <c r="AI5">
-        <v>3279936.943487804</v>
+        <v>3276217.147691663</v>
       </c>
       <c r="AJ5">
-        <v>4004853.760931482</v>
+        <v>4000307.268029453</v>
       </c>
       <c r="AK5">
-        <v>4811731.296533855</v>
+        <v>4806264.617485296</v>
       </c>
       <c r="AL5">
-        <v>5675872.78176637</v>
+        <v>5669420.598061334</v>
       </c>
       <c r="AM5">
-        <v>6563558.511035529</v>
+        <v>6556093.969681274</v>
       </c>
       <c r="AN5">
-        <v>7433602.952948788</v>
+        <v>7425146.17665572</v>
       </c>
       <c r="AO5">
-        <v>8240176.002427605</v>
+        <v>8230799.390011024</v>
       </c>
       <c r="AP5">
-        <v>8936825.732582986</v>
+        <v>8926654.668710548</v>
       </c>
       <c r="AQ5">
-        <v>9481271.971089257</v>
+        <v>9470480.067748006</v>
       </c>
       <c r="AR5">
-        <v>9840391.284830786</v>
+        <v>9829189.946016012</v>
       </c>
       <c r="AS5">
-        <v>9994500.812610233</v>
+        <v>9983123.884202126</v>
       </c>
       <c r="AT5">
-        <v>9940175.058258584</v>
+        <v>9928860.293495741</v>
       </c>
       <c r="AU5">
-        <v>9690967.173903946</v>
+        <v>9679936.86646707</v>
       </c>
       <c r="AV5">
-        <v>10588812.8602111</v>
+        <v>10578256.0851294</v>
       </c>
       <c r="AW5">
-        <v>10421073.11454138</v>
+        <v>10411131.58812881</v>
       </c>
       <c r="AX5">
-        <v>9807339.637152895</v>
+        <v>9798098.402636778</v>
       </c>
       <c r="AY5">
-        <v>9172303.96228102</v>
+        <v>9163787.303592339</v>
       </c>
       <c r="AZ5">
-        <v>8568345.959292248</v>
+        <v>8560518.427630113</v>
       </c>
       <c r="BA5">
-        <v>8042831.984844382</v>
+        <v>8035604.102467691</v>
       </c>
       <c r="BB5">
-        <v>7443651.656748918</v>
+        <v>7436889.886492215</v>
       </c>
       <c r="BC5">
-        <v>7178990.814867628</v>
+        <v>7172531.173721125</v>
       </c>
       <c r="BD5">
-        <v>7070666.145361645</v>
+        <v>7064330.307442842</v>
       </c>
       <c r="BE5">
-        <v>7116535.76684106</v>
+        <v>7110147.84940218</v>
       </c>
       <c r="BF5">
-        <v>7301108.124906251</v>
+        <v>7294509.915722936</v>
       </c>
       <c r="BG5">
-        <v>7410533.170006172</v>
+        <v>7403595.762942646</v>
       </c>
       <c r="BH5">
-        <v>7789423.431655204</v>
+        <v>7782054.0983746</v>
       </c>
       <c r="BI5">
-        <v>8216044.500028637</v>
+        <v>8208188.795963549</v>
       </c>
       <c r="BJ5">
-        <v>8658325.759785306</v>
+        <v>8649965.82188182</v>
       </c>
       <c r="BK5">
-        <v>9087846.661242625</v>
+        <v>9078997.044594577</v>
       </c>
       <c r="BL5">
-        <v>9339472.421074731</v>
+        <v>9330174.641359743</v>
       </c>
       <c r="BM5">
-        <v>9677872.181443853</v>
+        <v>9668188.670067176</v>
       </c>
       <c r="BN5">
-        <v>9948714.760127811</v>
+        <v>9938722.576660939</v>
       </c>
       <c r="BO5">
-        <v>10144702.89663237</v>
+        <v>10134487.42430446</v>
       </c>
       <c r="BP5">
-        <v>10263859.74676811</v>
+        <v>10253508.6236722</v>
       </c>
       <c r="BQ5">
-        <v>10210398.8036714</v>
+        <v>10199996.36842657</v>
       </c>
       <c r="BR5">
-        <v>10188800.0131085</v>
+        <v>10178422.49376956</v>
       </c>
       <c r="BS5">
-        <v>10110939.43822015</v>
+        <v>10100651.01027495</v>
       </c>
       <c r="BT5">
-        <v>9990051.298017859</v>
+        <v>9979901.0412606</v>
       </c>
       <c r="BU5">
-        <v>9841262.75122558</v>
+        <v>9831282.490524681</v>
       </c>
       <c r="BV5">
-        <v>9584496.288436392</v>
+        <v>9574699.350489851</v>
       </c>
       <c r="BW5">
-        <v>9428766.762714179</v>
+        <v>9419147.751246527</v>
       </c>
       <c r="BX5">
-        <v>9293344.604224904</v>
+        <v>9283880.355556998</v>
       </c>
       <c r="BY5">
-        <v>9191809.679514259</v>
+        <v>9182461.540004762</v>
       </c>
       <c r="BZ5">
-        <v>9134581.346257746</v>
+        <v>9125298.77733266</v>
       </c>
       <c r="CA5">
-        <v>9026852.568660244</v>
+        <v>9017577.862823255</v>
       </c>
       <c r="CB5">
-        <v>9072402.537570445</v>
+        <v>9063076.183272367</v>
       </c>
       <c r="CC5">
-        <v>9166991.820059776</v>
+        <v>9157557.880218158</v>
       </c>
       <c r="CD5">
-        <v>9303338.752914852</v>
+        <v>9293749.59628127</v>
       </c>
       <c r="CE5">
-        <v>9471045.000611851</v>
+        <v>9461264.856859781</v>
       </c>
       <c r="CF5">
-        <v>9543875.853800587</v>
+        <v>9533882.905249216</v>
       </c>
       <c r="CG5">
-        <v>9737099.881225336</v>
+        <v>9726886.857834144</v>
       </c>
       <c r="CH5">
-        <v>9924592.408086052</v>
+        <v>9914165.84750998</v>
       </c>
       <c r="CI5">
-        <v>10095825.8828333</v>
+        <v>10085204.33104728</v>
       </c>
       <c r="CJ5">
-        <v>10242504.39600196</v>
+        <v>10231715.86175467</v>
       </c>
       <c r="CK5">
-        <v>10203130.4578249</v>
+        <v>10192209.42901519</v>
       </c>
       <c r="CL5">
-        <v>10286430.19354525</v>
+        <v>10275414.49629398</v>
       </c>
       <c r="CM5">
-        <v>10336317.04439138</v>
+        <v>10325244.7913761</v>
       </c>
       <c r="CN5">
-        <v>10354955.95508918</v>
+        <v>10343862.78956381</v>
       </c>
       <c r="CO5">
-        <v>10346533.47693668</v>
+        <v>10335450.2667374</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:CO5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:93">
+      <c r="D1" s="1">
+        <v>2011</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2012</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2013</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2014</v>
+      </c>
+      <c r="H1" s="1">
+        <v>2015</v>
+      </c>
+      <c r="I1" s="1">
+        <v>2016</v>
+      </c>
+      <c r="J1" s="1">
+        <v>2017</v>
+      </c>
+      <c r="K1" s="1">
+        <v>2018</v>
+      </c>
+      <c r="L1" s="1">
+        <v>2019</v>
+      </c>
+      <c r="M1" s="1">
+        <v>2020</v>
+      </c>
+      <c r="N1" s="1">
+        <v>2021</v>
+      </c>
+      <c r="O1" s="1">
+        <v>2022</v>
+      </c>
+      <c r="P1" s="1">
+        <v>2023</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>2024</v>
+      </c>
+      <c r="R1" s="1">
+        <v>2025</v>
+      </c>
+      <c r="S1" s="1">
+        <v>2026</v>
+      </c>
+      <c r="T1" s="1">
+        <v>2027</v>
+      </c>
+      <c r="U1" s="1">
+        <v>2028</v>
+      </c>
+      <c r="V1" s="1">
+        <v>2029</v>
+      </c>
+      <c r="W1" s="1">
+        <v>2030</v>
+      </c>
+      <c r="X1" s="1">
+        <v>2031</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>2032</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>2033</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>2034</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>2035</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>2036</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>2037</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>2038</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>2039</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>2040</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>2041</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>2042</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>2043</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>2044</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>2045</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>2046</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>2047</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>2048</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>2049</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>2050</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>2051</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>2052</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>2053</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>2054</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>2055</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>2056</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>2057</v>
+      </c>
+      <c r="AY1" s="1">
+        <v>2058</v>
+      </c>
+      <c r="AZ1" s="1">
+        <v>2059</v>
+      </c>
+      <c r="BA1" s="1">
+        <v>2060</v>
+      </c>
+      <c r="BB1" s="1">
+        <v>2061</v>
+      </c>
+      <c r="BC1" s="1">
+        <v>2062</v>
+      </c>
+      <c r="BD1" s="1">
+        <v>2063</v>
+      </c>
+      <c r="BE1" s="1">
+        <v>2064</v>
+      </c>
+      <c r="BF1" s="1">
+        <v>2065</v>
+      </c>
+      <c r="BG1" s="1">
+        <v>2066</v>
+      </c>
+      <c r="BH1" s="1">
+        <v>2067</v>
+      </c>
+      <c r="BI1" s="1">
+        <v>2068</v>
+      </c>
+      <c r="BJ1" s="1">
+        <v>2069</v>
+      </c>
+      <c r="BK1" s="1">
+        <v>2070</v>
+      </c>
+      <c r="BL1" s="1">
+        <v>2071</v>
+      </c>
+      <c r="BM1" s="1">
+        <v>2072</v>
+      </c>
+      <c r="BN1" s="1">
+        <v>2073</v>
+      </c>
+      <c r="BO1" s="1">
+        <v>2074</v>
+      </c>
+      <c r="BP1" s="1">
+        <v>2075</v>
+      </c>
+      <c r="BQ1" s="1">
+        <v>2076</v>
+      </c>
+      <c r="BR1" s="1">
+        <v>2077</v>
+      </c>
+      <c r="BS1" s="1">
+        <v>2078</v>
+      </c>
+      <c r="BT1" s="1">
+        <v>2079</v>
+      </c>
+      <c r="BU1" s="1">
+        <v>2080</v>
+      </c>
+      <c r="BV1" s="1">
+        <v>2081</v>
+      </c>
+      <c r="BW1" s="1">
+        <v>2082</v>
+      </c>
+      <c r="BX1" s="1">
+        <v>2083</v>
+      </c>
+      <c r="BY1" s="1">
+        <v>2084</v>
+      </c>
+      <c r="BZ1" s="1">
+        <v>2085</v>
+      </c>
+      <c r="CA1" s="1">
+        <v>2086</v>
+      </c>
+      <c r="CB1" s="1">
+        <v>2087</v>
+      </c>
+      <c r="CC1" s="1">
+        <v>2088</v>
+      </c>
+      <c r="CD1" s="1">
+        <v>2089</v>
+      </c>
+      <c r="CE1" s="1">
+        <v>2090</v>
+      </c>
+      <c r="CF1" s="1">
+        <v>2091</v>
+      </c>
+      <c r="CG1" s="1">
+        <v>2092</v>
+      </c>
+      <c r="CH1" s="1">
+        <v>2093</v>
+      </c>
+      <c r="CI1" s="1">
+        <v>2094</v>
+      </c>
+      <c r="CJ1" s="1">
+        <v>2095</v>
+      </c>
+      <c r="CK1" s="1">
+        <v>2096</v>
+      </c>
+      <c r="CL1" s="1">
+        <v>2097</v>
+      </c>
+      <c r="CM1" s="1">
+        <v>2098</v>
+      </c>
+      <c r="CN1" s="1">
+        <v>2099</v>
+      </c>
+      <c r="CO1" s="1">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:93">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>262.0317682853503</v>
+      </c>
+      <c r="E2">
+        <v>564.6551325096093</v>
+      </c>
+      <c r="F2">
+        <v>1064.901390145882</v>
+      </c>
+      <c r="G2">
+        <v>1435.536050881256</v>
+      </c>
+      <c r="H2">
+        <v>2384.578927351109</v>
+      </c>
+      <c r="I2">
+        <v>2929.952808380113</v>
+      </c>
+      <c r="J2">
+        <v>3538.678630526794</v>
+      </c>
+      <c r="K2">
+        <v>4239.238116679998</v>
+      </c>
+      <c r="L2">
+        <v>4798.89666288937</v>
+      </c>
+      <c r="M2">
+        <v>5488.512577349256</v>
+      </c>
+      <c r="N2">
+        <v>5848.981552595884</v>
+      </c>
+      <c r="O2">
+        <v>6258.293856345449</v>
+      </c>
+      <c r="P2">
+        <v>7065.023029080574</v>
+      </c>
+      <c r="Q2">
+        <v>7870.009616040305</v>
+      </c>
+      <c r="R2">
+        <v>8667.047270166677</v>
+      </c>
+      <c r="S2">
+        <v>10651.81441072002</v>
+      </c>
+      <c r="T2">
+        <v>12653.0382725395</v>
+      </c>
+      <c r="U2">
+        <v>14671.23507293249</v>
+      </c>
+      <c r="V2">
+        <v>16711.05365352675</v>
+      </c>
+      <c r="W2">
+        <v>18774.19796391616</v>
+      </c>
+      <c r="X2">
+        <v>20680.98448343597</v>
+      </c>
+      <c r="Y2">
+        <v>22615.9723114492</v>
+      </c>
+      <c r="Z2">
+        <v>24623.43076752079</v>
+      </c>
+      <c r="AA2">
+        <v>26732.37852334009</v>
+      </c>
+      <c r="AB2">
+        <v>28954.99760546194</v>
+      </c>
+      <c r="AC2">
+        <v>29919.48733551463</v>
+      </c>
+      <c r="AD2">
+        <v>30847.94754036833</v>
+      </c>
+      <c r="AE2">
+        <v>31752.85648775348</v>
+      </c>
+      <c r="AF2">
+        <v>32652.29622252816</v>
+      </c>
+      <c r="AG2">
+        <v>33525.68923339821</v>
+      </c>
+      <c r="AH2">
+        <v>34183.96719807274</v>
+      </c>
+      <c r="AI2">
+        <v>34841.32989315335</v>
+      </c>
+      <c r="AJ2">
+        <v>35625.58951949011</v>
+      </c>
+      <c r="AK2">
+        <v>36610.54277541337</v>
+      </c>
+      <c r="AL2">
+        <v>37814.25575770571</v>
+      </c>
+      <c r="AM2">
+        <v>39359.85907941365</v>
+      </c>
+      <c r="AN2">
+        <v>41290.75001375291</v>
+      </c>
+      <c r="AO2">
+        <v>43373.50709021134</v>
+      </c>
+      <c r="AP2">
+        <v>45477.13917398611</v>
+      </c>
+      <c r="AQ2">
+        <v>47581.95055100494</v>
+      </c>
+      <c r="AR2">
+        <v>49664.70784767997</v>
+      </c>
+      <c r="AS2">
+        <v>51722.00329360246</v>
+      </c>
+      <c r="AT2">
+        <v>53790.47869631666</v>
+      </c>
+      <c r="AU2">
+        <v>55860.77981691104</v>
+      </c>
+      <c r="AV2">
+        <v>57833.57651905551</v>
+      </c>
+      <c r="AW2">
+        <v>59499.30645834743</v>
+      </c>
+      <c r="AX2">
+        <v>60983.11181955157</v>
+      </c>
+      <c r="AY2">
+        <v>62296.61138228455</v>
+      </c>
+      <c r="AZ2">
+        <v>63569.65274909556</v>
+      </c>
+      <c r="BA2">
+        <v>64797.70712391007</v>
+      </c>
+      <c r="BB2">
+        <v>65938.33171518509</v>
+      </c>
+      <c r="BC2">
+        <v>67042.7494521708</v>
+      </c>
+      <c r="BD2">
+        <v>68209.60616103128</v>
+      </c>
+      <c r="BE2">
+        <v>69536.42469589996</v>
+      </c>
+      <c r="BF2">
+        <v>71086.02520428826</v>
+      </c>
+      <c r="BG2">
+        <v>72875.33122587859</v>
+      </c>
+      <c r="BH2">
+        <v>74944.07425307989</v>
+      </c>
+      <c r="BI2">
+        <v>77230.92572568421</v>
+      </c>
+      <c r="BJ2">
+        <v>79621.00689990405</v>
+      </c>
+      <c r="BK2">
+        <v>82034.47783134045</v>
+      </c>
+      <c r="BL2">
+        <v>84422.90822636672</v>
+      </c>
+      <c r="BM2">
+        <v>86797.1492945513</v>
+      </c>
+      <c r="BN2">
+        <v>89153.88691654798</v>
+      </c>
+      <c r="BO2">
+        <v>91476.90863690282</v>
+      </c>
+      <c r="BP2">
+        <v>93712.96272194681</v>
+      </c>
+      <c r="BQ2">
+        <v>95773.53443604139</v>
+      </c>
+      <c r="BR2">
+        <v>97639.01974367126</v>
+      </c>
+      <c r="BS2">
+        <v>99349.93510555352</v>
+      </c>
+      <c r="BT2">
+        <v>100961.9250019908</v>
+      </c>
+      <c r="BU2">
+        <v>102517.9333838883</v>
+      </c>
+      <c r="BV2">
+        <v>104021.6172746611</v>
+      </c>
+      <c r="BW2">
+        <v>105508.8986563333</v>
+      </c>
+      <c r="BX2">
+        <v>107038.9761190305</v>
+      </c>
+      <c r="BY2">
+        <v>108689.674728892</v>
+      </c>
+      <c r="BZ2">
+        <v>110526.6483727005</v>
+      </c>
+      <c r="CA2">
+        <v>112573.5323563566</v>
+      </c>
+      <c r="CB2">
+        <v>114851.5141016405</v>
+      </c>
+      <c r="CC2">
+        <v>117334.1163019627</v>
+      </c>
+      <c r="CD2">
+        <v>119956.3085555797</v>
+      </c>
+      <c r="CE2">
+        <v>122641.9204827277</v>
+      </c>
+      <c r="CF2">
+        <v>125321.4166516326</v>
+      </c>
+      <c r="CG2">
+        <v>127984.9609708858</v>
+      </c>
+      <c r="CH2">
+        <v>130621.6370046681</v>
+      </c>
+      <c r="CI2">
+        <v>133213.3640951401</v>
+      </c>
+      <c r="CJ2">
+        <v>135725.3857954604</v>
+      </c>
+      <c r="CK2">
+        <v>138091.3924575163</v>
+      </c>
+      <c r="CL2">
+        <v>140301.9925022341</v>
+      </c>
+      <c r="CM2">
+        <v>142363.3512392509</v>
+      </c>
+      <c r="CN2">
+        <v>144310.9459219086</v>
+      </c>
+      <c r="CO2">
+        <v>146185.5532548727</v>
+      </c>
+    </row>
+    <row r="3" spans="1:93">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>16.49093896605874</v>
+      </c>
+      <c r="E3">
+        <v>35.65073761100844</v>
+      </c>
+      <c r="F3">
+        <v>67.96464116507053</v>
+      </c>
+      <c r="G3">
+        <v>91.57425867157829</v>
+      </c>
+      <c r="H3">
+        <v>154.1310111324799</v>
+      </c>
+      <c r="I3">
+        <v>189.5642424267885</v>
+      </c>
+      <c r="J3">
+        <v>229.1399658843546</v>
+      </c>
+      <c r="K3">
+        <v>274.730578063702</v>
+      </c>
+      <c r="L3">
+        <v>310.9032414839083</v>
+      </c>
+      <c r="M3">
+        <v>355.7328940778896</v>
+      </c>
+      <c r="N3">
+        <v>378.3113355558298</v>
+      </c>
+      <c r="O3">
+        <v>404.3196783494578</v>
+      </c>
+      <c r="P3">
+        <v>456.9402903143043</v>
+      </c>
+      <c r="Q3">
+        <v>511.8034967773438</v>
+      </c>
+      <c r="R3">
+        <v>568.4200263133172</v>
+      </c>
+      <c r="S3">
+        <v>719.0306810341174</v>
+      </c>
+      <c r="T3">
+        <v>877.2348791842491</v>
+      </c>
+      <c r="U3">
+        <v>1043.169783352413</v>
+      </c>
+      <c r="V3">
+        <v>1217.34158362004</v>
+      </c>
+      <c r="W3">
+        <v>1400.034440422538</v>
+      </c>
+      <c r="X3">
+        <v>1568.459833255401</v>
+      </c>
+      <c r="Y3">
+        <v>1739.355738081839</v>
+      </c>
+      <c r="Z3">
+        <v>1916.769464295179</v>
+      </c>
+      <c r="AA3">
+        <v>2103.353992859407</v>
+      </c>
+      <c r="AB3">
+        <v>2300.222760139803</v>
+      </c>
+      <c r="AC3">
+        <v>2383.03400248439</v>
+      </c>
+      <c r="AD3">
+        <v>2462.439749387203</v>
+      </c>
+      <c r="AE3">
+        <v>2539.580296672582</v>
+      </c>
+      <c r="AF3">
+        <v>2616.107905805845</v>
+      </c>
+      <c r="AG3">
+        <v>2690.13983921289</v>
+      </c>
+      <c r="AH3">
+        <v>2744.537485080366</v>
+      </c>
+      <c r="AI3">
+        <v>2798.730584597432</v>
+      </c>
+      <c r="AJ3">
+        <v>2864.402835327074</v>
+      </c>
+      <c r="AK3">
+        <v>2948.300033030118</v>
+      </c>
+      <c r="AL3">
+        <v>3052.072917942216</v>
+      </c>
+      <c r="AM3">
+        <v>3186.97610246842</v>
+      </c>
+      <c r="AN3">
+        <v>3356.976811727641</v>
+      </c>
+      <c r="AO3">
+        <v>3540.738569288927</v>
+      </c>
+      <c r="AP3">
+        <v>3726.288548333064</v>
+      </c>
+      <c r="AQ3">
+        <v>3911.827923922879</v>
+      </c>
+      <c r="AR3">
+        <v>4095.23144763714</v>
+      </c>
+      <c r="AS3">
+        <v>4276.189863946525</v>
+      </c>
+      <c r="AT3">
+        <v>4458.055038940336</v>
+      </c>
+      <c r="AU3">
+        <v>4639.974198137672</v>
+      </c>
+      <c r="AV3">
+        <v>4812.856230190191</v>
+      </c>
+      <c r="AW3">
+        <v>4957.544772193038</v>
+      </c>
+      <c r="AX3">
+        <v>5085.31999328523</v>
+      </c>
+      <c r="AY3">
+        <v>5197.406474910467</v>
+      </c>
+      <c r="AZ3">
+        <v>5305.673114532866</v>
+      </c>
+      <c r="BA3">
+        <v>5409.704908936453</v>
+      </c>
+      <c r="BB3">
+        <v>5505.630349356875</v>
+      </c>
+      <c r="BC3">
+        <v>5598.109167331498</v>
+      </c>
+      <c r="BD3">
+        <v>5696.157374378777</v>
+      </c>
+      <c r="BE3">
+        <v>5808.688655148174</v>
+      </c>
+      <c r="BF3">
+        <v>5941.4444340246</v>
+      </c>
+      <c r="BG3">
+        <v>6095.982109996875</v>
+      </c>
+      <c r="BH3">
+        <v>6275.91205062363</v>
+      </c>
+      <c r="BI3">
+        <v>6475.627756304038</v>
+      </c>
+      <c r="BJ3">
+        <v>6684.62801111588</v>
+      </c>
+      <c r="BK3">
+        <v>6895.614806414877</v>
+      </c>
+      <c r="BL3">
+        <v>7104.169766514719</v>
+      </c>
+      <c r="BM3">
+        <v>7311.269955367753</v>
+      </c>
+      <c r="BN3">
+        <v>7516.613332268701</v>
+      </c>
+      <c r="BO3">
+        <v>7718.718878836802</v>
+      </c>
+      <c r="BP3">
+        <v>7912.719681133534</v>
+      </c>
+      <c r="BQ3">
+        <v>8090.524480920802</v>
+      </c>
+      <c r="BR3">
+        <v>8250.330665650679</v>
+      </c>
+      <c r="BS3">
+        <v>8395.84192371499</v>
+      </c>
+      <c r="BT3">
+        <v>8532.144752791719</v>
+      </c>
+      <c r="BU3">
+        <v>8663.164672538916</v>
+      </c>
+      <c r="BV3">
+        <v>8789.236580294462</v>
+      </c>
+      <c r="BW3">
+        <v>8913.633362789524</v>
+      </c>
+      <c r="BX3">
+        <v>9041.766298733437</v>
+      </c>
+      <c r="BY3">
+        <v>9180.749405995568</v>
+      </c>
+      <c r="BZ3">
+        <v>9336.584064115441</v>
+      </c>
+      <c r="CA3">
+        <v>9511.431276767582</v>
+      </c>
+      <c r="CB3">
+        <v>9707.216238445591</v>
+      </c>
+      <c r="CC3">
+        <v>9921.518200851924</v>
+      </c>
+      <c r="CD3">
+        <v>10148.39234621942</v>
+      </c>
+      <c r="CE3">
+        <v>10380.87567147283</v>
+      </c>
+      <c r="CF3">
+        <v>10612.6126815454</v>
+      </c>
+      <c r="CG3">
+        <v>10842.6917920598</v>
+      </c>
+      <c r="CH3">
+        <v>11070.11535600316</v>
+      </c>
+      <c r="CI3">
+        <v>11293.23092998785</v>
+      </c>
+      <c r="CJ3">
+        <v>11508.86172097032</v>
+      </c>
+      <c r="CK3">
+        <v>11710.95271437481</v>
+      </c>
+      <c r="CL3">
+        <v>11898.62833306102</v>
+      </c>
+      <c r="CM3">
+        <v>12072.45209261616</v>
+      </c>
+      <c r="CN3">
+        <v>12235.6668967039</v>
+      </c>
+      <c r="CO3">
+        <v>12392.00010967097</v>
+      </c>
+    </row>
+    <row r="4" spans="1:93">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>26474515.04430017</v>
+      </c>
+      <c r="E4">
+        <v>53251966.67688502</v>
+      </c>
+      <c r="F4">
+        <v>82628593.05405125</v>
+      </c>
+      <c r="G4">
+        <v>112096976.7990364</v>
+      </c>
+      <c r="H4">
+        <v>138930792.24448</v>
+      </c>
+      <c r="I4">
+        <v>165252026.6779144</v>
+      </c>
+      <c r="J4">
+        <v>194282974.0315489</v>
+      </c>
+      <c r="K4">
+        <v>227137318.959349</v>
+      </c>
+      <c r="L4">
+        <v>259774624.7768627</v>
+      </c>
+      <c r="M4">
+        <v>294505311.4612381</v>
+      </c>
+      <c r="N4">
+        <v>332114103.3617692</v>
+      </c>
+      <c r="O4">
+        <v>367024691.7841939</v>
+      </c>
+      <c r="P4">
+        <v>405790358.1092624</v>
+      </c>
+      <c r="Q4">
+        <v>445687551.4488172</v>
+      </c>
+      <c r="R4">
+        <v>486719195.958508</v>
+      </c>
+      <c r="S4">
+        <v>532376409.5590718</v>
+      </c>
+      <c r="T4">
+        <v>578938662.8468101</v>
+      </c>
+      <c r="U4">
+        <v>626401404.2791293</v>
+      </c>
+      <c r="V4">
+        <v>674761173.0287088</v>
+      </c>
+      <c r="W4">
+        <v>724013823.0112679</v>
+      </c>
+      <c r="X4">
+        <v>774435376.5834599</v>
+      </c>
+      <c r="Y4">
+        <v>826200650.0512072</v>
+      </c>
+      <c r="Z4">
+        <v>879310517.0832082</v>
+      </c>
+      <c r="AA4">
+        <v>933765176.4709533</v>
+      </c>
+      <c r="AB4">
+        <v>989565770.2937548</v>
+      </c>
+      <c r="AC4">
+        <v>1044499751.096429</v>
+      </c>
+      <c r="AD4">
+        <v>1100781229.144165</v>
+      </c>
+      <c r="AE4">
+        <v>1158409784.051013</v>
+      </c>
+      <c r="AF4">
+        <v>1217387050.261215</v>
+      </c>
+      <c r="AG4">
+        <v>1277717209.133813</v>
+      </c>
+      <c r="AH4">
+        <v>1339043979.093105</v>
+      </c>
+      <c r="AI4">
+        <v>1401760009.479761</v>
+      </c>
+      <c r="AJ4">
+        <v>1465874575.702941</v>
+      </c>
+      <c r="AK4">
+        <v>1531392449.034428</v>
+      </c>
+      <c r="AL4">
+        <v>1598317743.350373</v>
+      </c>
+      <c r="AM4">
+        <v>1666643612.067468</v>
+      </c>
+      <c r="AN4">
+        <v>1736376171.278198</v>
+      </c>
+      <c r="AO4">
+        <v>1807477523.326771</v>
+      </c>
+      <c r="AP4">
+        <v>1879926105.803601</v>
+      </c>
+      <c r="AQ4">
+        <v>1953717832.753708</v>
+      </c>
+      <c r="AR4">
+        <v>2028833111.828835</v>
+      </c>
+      <c r="AS4">
+        <v>2105268921.467252</v>
+      </c>
+      <c r="AT4">
+        <v>2183027404.314629</v>
+      </c>
+      <c r="AU4">
+        <v>2262103287.756193</v>
+      </c>
+      <c r="AV4">
+        <v>2342677991.141358</v>
+      </c>
+      <c r="AW4">
+        <v>2424666867.73455</v>
+      </c>
+      <c r="AX4">
+        <v>2508115170.647149</v>
+      </c>
+      <c r="AY4">
+        <v>2592954219.705294</v>
+      </c>
+      <c r="AZ4">
+        <v>2679206770.254142</v>
+      </c>
+      <c r="BA4">
+        <v>2766874484.632357</v>
+      </c>
+      <c r="BB4">
+        <v>2856004924.625504</v>
+      </c>
+      <c r="BC4">
+        <v>2946645882.793808</v>
+      </c>
+      <c r="BD4">
+        <v>3038810854.131233</v>
+      </c>
+      <c r="BE4">
+        <v>3132510474.038218</v>
+      </c>
+      <c r="BF4">
+        <v>3227751774.537807</v>
+      </c>
+      <c r="BG4">
+        <v>3324575808.338655</v>
+      </c>
+      <c r="BH4">
+        <v>3423026357.772541</v>
+      </c>
+      <c r="BI4">
+        <v>3523093374.48053</v>
+      </c>
+      <c r="BJ4">
+        <v>3624758074.735806</v>
+      </c>
+      <c r="BK4">
+        <v>3728007070.920193</v>
+      </c>
+      <c r="BL4">
+        <v>3832853965.69628</v>
+      </c>
+      <c r="BM4">
+        <v>3939326799.020044</v>
+      </c>
+      <c r="BN4">
+        <v>4047422789.113177</v>
+      </c>
+      <c r="BO4">
+        <v>4157137141.533636</v>
+      </c>
+      <c r="BP4">
+        <v>4268460366.211531</v>
+      </c>
+      <c r="BQ4">
+        <v>4381468745.740674</v>
+      </c>
+      <c r="BR4">
+        <v>4496182064.550249</v>
+      </c>
+      <c r="BS4">
+        <v>4612611018.089126</v>
+      </c>
+      <c r="BT4">
+        <v>4730768032.737978</v>
+      </c>
+      <c r="BU4">
+        <v>4850662376.716084</v>
+      </c>
+      <c r="BV4">
+        <v>4972355821.745004</v>
+      </c>
+      <c r="BW4">
+        <v>5095874190.081015</v>
+      </c>
+      <c r="BX4">
+        <v>5221226006.753746</v>
+      </c>
+      <c r="BY4">
+        <v>5348420871.175126</v>
+      </c>
+      <c r="BZ4">
+        <v>5477466135.025064</v>
+      </c>
+      <c r="CA4">
+        <v>5608428716.43335</v>
+      </c>
+      <c r="CB4">
+        <v>5741331411.819202</v>
+      </c>
+      <c r="CC4">
+        <v>5876169774.974411</v>
+      </c>
+      <c r="CD4">
+        <v>6012933066.047163</v>
+      </c>
+      <c r="CE4">
+        <v>6151608545.988115</v>
+      </c>
+      <c r="CF4">
+        <v>6292251463.848002</v>
+      </c>
+      <c r="CG4">
+        <v>6434881559.997798</v>
+      </c>
+      <c r="CH4">
+        <v>6579495556.550068</v>
+      </c>
+      <c r="CI4">
+        <v>6726089145.285353</v>
+      </c>
+      <c r="CJ4">
+        <v>6874656133.957478</v>
+      </c>
+      <c r="CK4">
+        <v>7025239984.318666</v>
+      </c>
+      <c r="CL4">
+        <v>7177872356.779139</v>
+      </c>
+      <c r="CM4">
+        <v>7332557578.144544</v>
+      </c>
+      <c r="CN4">
+        <v>7489304730.766127</v>
+      </c>
+      <c r="CO4">
+        <v>7648123074.9359</v>
+      </c>
+    </row>
+    <row r="5" spans="1:93">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>1695270.008317868</v>
+      </c>
+      <c r="E5">
+        <v>2692058.400363186</v>
+      </c>
+      <c r="F5">
+        <v>3192757.878724928</v>
+      </c>
+      <c r="G5">
+        <v>3502192.517782744</v>
+      </c>
+      <c r="H5">
+        <v>3793543.419826355</v>
+      </c>
+      <c r="I5">
+        <v>4003803.467169333</v>
+      </c>
+      <c r="J5">
+        <v>4180949.298098055</v>
+      </c>
+      <c r="K5">
+        <v>4412994.937021624</v>
+      </c>
+      <c r="L5">
+        <v>4827544.31949858</v>
+      </c>
+      <c r="M5">
+        <v>5204001.464034162</v>
+      </c>
+      <c r="N5">
+        <v>5684320.465330939</v>
+      </c>
+      <c r="O5">
+        <v>6284232.749130246</v>
+      </c>
+      <c r="P5">
+        <v>9904719.784117164</v>
+      </c>
+      <c r="Q5">
+        <v>13627906.9937203</v>
+      </c>
+      <c r="R5">
+        <v>17459627.78137777</v>
+      </c>
+      <c r="S5">
+        <v>29589207.03417648</v>
+      </c>
+      <c r="T5">
+        <v>41994740.7084105</v>
+      </c>
+      <c r="U5">
+        <v>54680702.04638111</v>
+      </c>
+      <c r="V5">
+        <v>67650786.12374321</v>
+      </c>
+      <c r="W5">
+        <v>80908260.8983396</v>
+      </c>
+      <c r="X5">
+        <v>93640280.98171011</v>
+      </c>
+      <c r="Y5">
+        <v>106430430.1437681</v>
+      </c>
+      <c r="Z5">
+        <v>119286051.1202117</v>
+      </c>
+      <c r="AA5">
+        <v>132220782.4274407</v>
+      </c>
+      <c r="AB5">
+        <v>145257395.1191883</v>
+      </c>
+      <c r="AC5">
+        <v>148140137.4960899</v>
+      </c>
+      <c r="AD5">
+        <v>151208527.8989876</v>
+      </c>
+      <c r="AE5">
+        <v>154527201.3179221</v>
+      </c>
+      <c r="AF5">
+        <v>158176026.6041935</v>
+      </c>
+      <c r="AG5">
+        <v>162247728.2783454</v>
+      </c>
+      <c r="AH5">
+        <v>164896882.3074106</v>
+      </c>
+      <c r="AI5">
+        <v>168173099.4551022</v>
+      </c>
+      <c r="AJ5">
+        <v>172173406.7231317</v>
+      </c>
+      <c r="AK5">
+        <v>176979671.340617</v>
+      </c>
+      <c r="AL5">
+        <v>182649091.9386783</v>
+      </c>
+      <c r="AM5">
+        <v>189205185.9083596</v>
+      </c>
+      <c r="AN5">
+        <v>196630332.0850153</v>
+      </c>
+      <c r="AO5">
+        <v>204861131.4750263</v>
+      </c>
+      <c r="AP5">
+        <v>213787786.1437368</v>
+      </c>
+      <c r="AQ5">
+        <v>223258266.2114848</v>
+      </c>
+      <c r="AR5">
+        <v>233087456.1575009</v>
+      </c>
+      <c r="AS5">
+        <v>243070580.041703</v>
+      </c>
+      <c r="AT5">
+        <v>252999440.3351987</v>
+      </c>
+      <c r="AU5">
+        <v>262679377.2016658</v>
+      </c>
+      <c r="AV5">
+        <v>273257633.2867952</v>
+      </c>
+      <c r="AW5">
+        <v>283668764.874924</v>
+      </c>
+      <c r="AX5">
+        <v>293466863.2775608</v>
+      </c>
+      <c r="AY5">
+        <v>302630650.5811531</v>
+      </c>
+      <c r="AZ5">
+        <v>311191169.0087832</v>
+      </c>
+      <c r="BA5">
+        <v>319226773.1112509</v>
+      </c>
+      <c r="BB5">
+        <v>326663662.9977431</v>
+      </c>
+      <c r="BC5">
+        <v>333836194.1714643</v>
+      </c>
+      <c r="BD5">
+        <v>340900524.4789071</v>
+      </c>
+      <c r="BE5">
+        <v>348010672.3283093</v>
+      </c>
+      <c r="BF5">
+        <v>355305182.2440323</v>
+      </c>
+      <c r="BG5">
+        <v>362708778.0069749</v>
+      </c>
+      <c r="BH5">
+        <v>370490832.1053495</v>
+      </c>
+      <c r="BI5">
+        <v>378699020.9013131</v>
+      </c>
+      <c r="BJ5">
+        <v>387348986.7231949</v>
+      </c>
+      <c r="BK5">
+        <v>396427983.7677895</v>
+      </c>
+      <c r="BL5">
+        <v>405758158.4091492</v>
+      </c>
+      <c r="BM5">
+        <v>415426347.0792164</v>
+      </c>
+      <c r="BN5">
+        <v>425365069.6558774</v>
+      </c>
+      <c r="BO5">
+        <v>435499557.0801818</v>
+      </c>
+      <c r="BP5">
+        <v>445753065.703854</v>
+      </c>
+      <c r="BQ5">
+        <v>455953062.0722806</v>
+      </c>
+      <c r="BR5">
+        <v>466131484.5660502</v>
+      </c>
+      <c r="BS5">
+        <v>476232135.5763251</v>
+      </c>
+      <c r="BT5">
+        <v>486212036.6175857</v>
+      </c>
+      <c r="BU5">
+        <v>496043319.1081104</v>
+      </c>
+      <c r="BV5">
+        <v>505618018.4586003</v>
+      </c>
+      <c r="BW5">
+        <v>515037166.2098468</v>
+      </c>
+      <c r="BX5">
+        <v>524321046.5654038</v>
+      </c>
+      <c r="BY5">
+        <v>533503508.1054086</v>
+      </c>
+      <c r="BZ5">
+        <v>542628806.8827412</v>
+      </c>
+      <c r="CA5">
+        <v>551646384.7455645</v>
+      </c>
+      <c r="CB5">
+        <v>560709460.9288368</v>
+      </c>
+      <c r="CC5">
+        <v>569867018.809055</v>
+      </c>
+      <c r="CD5">
+        <v>579160768.4053363</v>
+      </c>
+      <c r="CE5">
+        <v>588622033.2621961</v>
+      </c>
+      <c r="CF5">
+        <v>598155916.1674453</v>
+      </c>
+      <c r="CG5">
+        <v>607882803.0252794</v>
+      </c>
+      <c r="CH5">
+        <v>617796968.8727894</v>
+      </c>
+      <c r="CI5">
+        <v>627882173.2038367</v>
+      </c>
+      <c r="CJ5">
+        <v>638113889.0655913</v>
+      </c>
+      <c r="CK5">
+        <v>648306098.4946065</v>
+      </c>
+      <c r="CL5">
+        <v>658581512.9909005</v>
+      </c>
+      <c r="CM5">
+        <v>668906757.7822766</v>
+      </c>
+      <c r="CN5">
+        <v>679250620.5718404</v>
+      </c>
+      <c r="CO5">
+        <v>689586070.8385779</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Act/Lifetime/Results_world_act_life_Min.xlsx
+++ b/Results/Act/Lifetime/Results_world_act_life_Min.xlsx
@@ -29,7 +29,7 @@
     <t>Dysprosium</t>
   </si>
   <si>
-    <t>Copper ores and concentrates</t>
+    <t>Copper</t>
   </si>
   <si>
     <t>Raw silicon</t>
@@ -679,274 +679,274 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>262.0317682853503</v>
+        <v>1072.373874491154</v>
       </c>
       <c r="E2">
-        <v>302.6233642242591</v>
+        <v>1397.730119703859</v>
       </c>
       <c r="F2">
-        <v>500.2462576362724</v>
+        <v>1397.031627798362</v>
       </c>
       <c r="G2">
-        <v>370.6346607353748</v>
+        <v>1327.590969412295</v>
       </c>
       <c r="H2">
-        <v>949.0428764698527</v>
+        <v>1780.597773721568</v>
       </c>
       <c r="I2">
-        <v>545.3738810290037</v>
+        <v>1284.725912258273</v>
       </c>
       <c r="J2">
-        <v>608.7258221466811</v>
+        <v>2324.625080084024</v>
       </c>
       <c r="K2">
-        <v>700.5594861532037</v>
+        <v>2311.609606929694</v>
       </c>
       <c r="L2">
-        <v>559.6585462093728</v>
+        <v>2058.411181797574</v>
       </c>
       <c r="M2">
-        <v>689.6159144598863</v>
+        <v>1901.455711851697</v>
       </c>
       <c r="N2">
-        <v>360.4689752466271</v>
+        <v>4070.010987435245</v>
       </c>
       <c r="O2">
-        <v>409.3123037495649</v>
+        <v>2490.436145987629</v>
       </c>
       <c r="P2">
-        <v>806.7291727351248</v>
+        <v>4975.546756849969</v>
       </c>
       <c r="Q2">
-        <v>804.9865869597304</v>
+        <v>5356.190926230572</v>
       </c>
       <c r="R2">
-        <v>797.0376541263714</v>
+        <v>5726.842935537294</v>
       </c>
       <c r="S2">
-        <v>1984.767140553348</v>
+        <v>12511.62886697239</v>
       </c>
       <c r="T2">
-        <v>2001.223861819476</v>
+        <v>13424.77565485982</v>
       </c>
       <c r="U2">
-        <v>2018.196800392989</v>
+        <v>14353.4966507664</v>
       </c>
       <c r="V2">
-        <v>2039.818580594265</v>
+        <v>15309.46243356626</v>
       </c>
       <c r="W2">
-        <v>2063.144310389409</v>
+        <v>16284.45458887642</v>
       </c>
       <c r="X2">
-        <v>1906.786519519811</v>
+        <v>16396.06067370679</v>
       </c>
       <c r="Y2">
-        <v>1934.987828013226</v>
+        <v>17319.09478176718</v>
       </c>
       <c r="Z2">
-        <v>2007.458456071593</v>
+        <v>18257.5299649359</v>
       </c>
       <c r="AA2">
-        <v>2108.9477558193</v>
+        <v>19164.9752239871</v>
       </c>
       <c r="AB2">
-        <v>2222.619082121849</v>
+        <v>20122.30604156589</v>
       </c>
       <c r="AC2">
-        <v>964.4897300526974</v>
+        <v>9662.835910229522</v>
       </c>
       <c r="AD2">
-        <v>928.4602048536987</v>
+        <v>9991.266596332127</v>
       </c>
       <c r="AE2">
-        <v>904.9089473851458</v>
+        <v>10373.8604909875</v>
       </c>
       <c r="AF2">
-        <v>899.4397347746852</v>
+        <v>10639.42169066359</v>
       </c>
       <c r="AG2">
-        <v>873.3930108700458</v>
+        <v>10975.69541547273</v>
       </c>
       <c r="AH2">
-        <v>658.2779646745291</v>
+        <v>7514.659707562315</v>
       </c>
       <c r="AI2">
-        <v>657.362695080615</v>
+        <v>8133.664485269539</v>
       </c>
       <c r="AJ2">
-        <v>784.2596263367627</v>
+        <v>8748.059867904911</v>
       </c>
       <c r="AK2">
-        <v>984.9532559232596</v>
+        <v>9800.643402845608</v>
       </c>
       <c r="AL2">
-        <v>1203.712982292341</v>
+        <v>11204.57624866042</v>
       </c>
       <c r="AM2">
-        <v>1545.603321707944</v>
+        <v>15052.77435770531</v>
       </c>
       <c r="AN2">
-        <v>1930.89093433926</v>
+        <v>17517.64402963002</v>
       </c>
       <c r="AO2">
-        <v>2082.757076458424</v>
+        <v>19059.56592251171</v>
       </c>
       <c r="AP2">
-        <v>2103.632083774768</v>
+        <v>20044.66523272801</v>
       </c>
       <c r="AQ2">
-        <v>2104.811377018838</v>
+        <v>20908.54923660154</v>
       </c>
       <c r="AR2">
-        <v>2082.757296675027</v>
+        <v>24902.53190880971</v>
       </c>
       <c r="AS2">
-        <v>2057.295445922483</v>
+        <v>25599.6259606783</v>
       </c>
       <c r="AT2">
-        <v>2068.475402714202</v>
+        <v>26300.19654932206</v>
       </c>
       <c r="AU2">
-        <v>2070.301120594377</v>
+        <v>26660.04406729325</v>
       </c>
       <c r="AV2">
-        <v>1972.796702144474</v>
+        <v>26076.10984385119</v>
       </c>
       <c r="AW2">
-        <v>1665.729939291914</v>
+        <v>24686.17878252391</v>
       </c>
       <c r="AX2">
-        <v>1483.805361204144</v>
+        <v>22017.47126100217</v>
       </c>
       <c r="AY2">
-        <v>1313.499562732983</v>
+        <v>21200.20735521377</v>
       </c>
       <c r="AZ2">
-        <v>1273.041366811011</v>
+        <v>21306.74180243633</v>
       </c>
       <c r="BA2">
-        <v>1228.054374814504</v>
+        <v>21160.34902798719</v>
       </c>
       <c r="BB2">
-        <v>1140.624591275029</v>
+        <v>19693.0071356448</v>
       </c>
       <c r="BC2">
-        <v>1104.417736985704</v>
+        <v>19132.07071836896</v>
       </c>
       <c r="BD2">
-        <v>1166.85670886048</v>
+        <v>19503.03991755968</v>
       </c>
       <c r="BE2">
-        <v>1326.818534868678</v>
+        <v>20583.07687970301</v>
       </c>
       <c r="BF2">
-        <v>1549.600508388307</v>
+        <v>22194.25148416498</v>
       </c>
       <c r="BG2">
-        <v>1789.306021590324</v>
+        <v>23757.96404312606</v>
       </c>
       <c r="BH2">
-        <v>2068.743027201297</v>
+        <v>26250.48856889181</v>
       </c>
       <c r="BI2">
-        <v>2286.851472604326</v>
+        <v>28308.12874447559</v>
       </c>
       <c r="BJ2">
-        <v>2390.081174219843</v>
+        <v>29867.123997784</v>
       </c>
       <c r="BK2">
-        <v>2413.470931436405</v>
+        <v>31347.49558924237</v>
       </c>
       <c r="BL2">
-        <v>2388.430395026263</v>
+        <v>32732.97255164648</v>
       </c>
       <c r="BM2">
-        <v>2374.241068184583</v>
+        <v>34493.31319453137</v>
       </c>
       <c r="BN2">
-        <v>2356.737621996688</v>
+        <v>35504.92316780754</v>
       </c>
       <c r="BO2">
-        <v>2323.021720354842</v>
+        <v>35883.20331506684</v>
       </c>
       <c r="BP2">
-        <v>2236.054085043981</v>
+        <v>35691.12041610589</v>
       </c>
       <c r="BQ2">
-        <v>2060.571714094574</v>
+        <v>34627.0974708405</v>
       </c>
       <c r="BR2">
-        <v>1865.485307629872</v>
+        <v>33296.99314720197</v>
       </c>
       <c r="BS2">
-        <v>1710.915361882257</v>
+        <v>32106.79757382418</v>
       </c>
       <c r="BT2">
-        <v>1611.989896437293</v>
+        <v>31561.08948648897</v>
       </c>
       <c r="BU2">
-        <v>1556.008381897523</v>
+        <v>31330.74217051297</v>
       </c>
       <c r="BV2">
-        <v>1503.683890772746</v>
+        <v>30716.77337384856</v>
       </c>
       <c r="BW2">
-        <v>1487.281381672211</v>
+        <v>30310.67695940374</v>
       </c>
       <c r="BX2">
-        <v>1530.077462697183</v>
+        <v>30441.7154781303</v>
       </c>
       <c r="BY2">
-        <v>1650.698609861545</v>
+        <v>31268.82909678263</v>
       </c>
       <c r="BZ2">
-        <v>1836.973643808476</v>
+        <v>32630.07593168511</v>
       </c>
       <c r="CA2">
-        <v>2046.883983656047</v>
+        <v>34131.50620105346</v>
       </c>
       <c r="CB2">
-        <v>2277.981745283941</v>
+        <v>36053.44499823561</v>
       </c>
       <c r="CC2">
-        <v>2482.602200322169</v>
+        <v>38053.99556806141</v>
       </c>
       <c r="CD2">
-        <v>2622.192253617016</v>
+        <v>39860.43967359583</v>
       </c>
       <c r="CE2">
-        <v>2685.611927148006</v>
+        <v>41446.0990194015</v>
       </c>
       <c r="CF2">
-        <v>2679.496168904867</v>
+        <v>42675.14646758159</v>
       </c>
       <c r="CG2">
-        <v>2663.544319253289</v>
+        <v>44069.53671815453</v>
       </c>
       <c r="CH2">
-        <v>2636.676033782246</v>
+        <v>45205.45786628897</v>
       </c>
       <c r="CI2">
-        <v>2591.727090472025</v>
+        <v>45804.63240530754</v>
       </c>
       <c r="CJ2">
-        <v>2512.021700320286</v>
+        <v>45794.10477507087</v>
       </c>
       <c r="CK2">
-        <v>2366.006662055869</v>
+        <v>44834.32979796593</v>
       </c>
       <c r="CL2">
-        <v>2210.600044717793</v>
+        <v>43894.58617774402</v>
       </c>
       <c r="CM2">
-        <v>2061.358737016764</v>
+        <v>42917.35043168304</v>
       </c>
       <c r="CN2">
-        <v>1947.594682657716</v>
+        <v>42183.48193428676</v>
       </c>
       <c r="CO2">
-        <v>1874.607332964151</v>
+        <v>41747.99021757906</v>
       </c>
     </row>
     <row r="3" spans="1:93">
@@ -956,274 +956,274 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>16.49093896605874</v>
+        <v>70.91124739014684</v>
       </c>
       <c r="E3">
-        <v>19.1597986449497</v>
+        <v>92.7050015820446</v>
       </c>
       <c r="F3">
-        <v>32.31390355406209</v>
+        <v>92.53982554733167</v>
       </c>
       <c r="G3">
-        <v>23.60961750650776</v>
+        <v>87.87484380016546</v>
       </c>
       <c r="H3">
-        <v>62.55675246090161</v>
+        <v>118.3984177396459</v>
       </c>
       <c r="I3">
-        <v>35.43323129430858</v>
+        <v>85.08204867090745</v>
       </c>
       <c r="J3">
-        <v>39.57572345756608</v>
+        <v>154.8130776054456</v>
       </c>
       <c r="K3">
-        <v>45.59061217934736</v>
+        <v>153.7869514538292</v>
       </c>
       <c r="L3">
-        <v>36.17266342020631</v>
+        <v>136.8280362575376</v>
       </c>
       <c r="M3">
-        <v>44.82965259398136</v>
+        <v>126.2151906065938</v>
       </c>
       <c r="N3">
-        <v>22.57844147794022</v>
+        <v>271.7826109079363</v>
       </c>
       <c r="O3">
-        <v>26.00834279362792</v>
+        <v>165.8299747708244</v>
       </c>
       <c r="P3">
-        <v>52.62061196484657</v>
+        <v>332.6222416492942</v>
       </c>
       <c r="Q3">
-        <v>54.86320646303941</v>
+        <v>358.1603199032616</v>
       </c>
       <c r="R3">
-        <v>56.61652953597341</v>
+        <v>383.0364739890333</v>
       </c>
       <c r="S3">
-        <v>150.6106547208001</v>
+        <v>838.5701650565591</v>
       </c>
       <c r="T3">
-        <v>158.2041981501316</v>
+        <v>899.8841138603974</v>
       </c>
       <c r="U3">
-        <v>165.934904168164</v>
+        <v>962.2476344418343</v>
       </c>
       <c r="V3">
-        <v>174.1718002676267</v>
+        <v>1026.460912301525</v>
       </c>
       <c r="W3">
-        <v>182.6928568024987</v>
+        <v>1091.955178776594</v>
       </c>
       <c r="X3">
-        <v>168.4253928328623</v>
+        <v>1099.430261892379</v>
       </c>
       <c r="Y3">
-        <v>170.8959048264383</v>
+        <v>1161.442542463393</v>
       </c>
       <c r="Z3">
-        <v>177.4137262133403</v>
+        <v>1224.510068418862</v>
       </c>
       <c r="AA3">
-        <v>186.5845285642276</v>
+        <v>1285.55861037587</v>
       </c>
       <c r="AB3">
-        <v>196.868767280396</v>
+        <v>1349.9670081816</v>
       </c>
       <c r="AC3">
-        <v>82.81124234458726</v>
+        <v>647.557373535302</v>
       </c>
       <c r="AD3">
-        <v>79.40574690281237</v>
+        <v>669.5114892894662</v>
       </c>
       <c r="AE3">
-        <v>77.1405472853793</v>
+        <v>695.2523691044557</v>
       </c>
       <c r="AF3">
-        <v>76.52760913326279</v>
+        <v>713.1933761699432</v>
       </c>
       <c r="AG3">
-        <v>74.03193340704497</v>
+        <v>735.7342887111478</v>
       </c>
       <c r="AH3">
-        <v>54.39764586747643</v>
+        <v>503.4640822408543</v>
       </c>
       <c r="AI3">
-        <v>54.1930995170656</v>
+        <v>545.2679481352826</v>
       </c>
       <c r="AJ3">
-        <v>65.67225072964163</v>
+        <v>586.9630968912272</v>
       </c>
       <c r="AK3">
-        <v>83.89719770304414</v>
+        <v>658.3378697257464</v>
       </c>
       <c r="AL3">
-        <v>103.7728849120975</v>
+        <v>753.482079609217</v>
       </c>
       <c r="AM3">
-        <v>134.9031845262048</v>
+        <v>1013.251985412917</v>
       </c>
       <c r="AN3">
-        <v>170.0007092592207</v>
+        <v>1180.415971667586</v>
       </c>
       <c r="AO3">
-        <v>183.7617575612855</v>
+        <v>1284.879744731807</v>
       </c>
       <c r="AP3">
-        <v>185.5499790441372</v>
+        <v>1351.498857091191</v>
       </c>
       <c r="AQ3">
-        <v>185.5393755898153</v>
+        <v>1409.919644068637</v>
       </c>
       <c r="AR3">
-        <v>183.4035237142612</v>
+        <v>1678.509456806896</v>
       </c>
       <c r="AS3">
-        <v>180.9584163093854</v>
+        <v>1725.775730663882</v>
       </c>
       <c r="AT3">
-        <v>181.8651749938106</v>
+        <v>1774.014461706839</v>
       </c>
       <c r="AU3">
-        <v>181.9191591973357</v>
+        <v>1799.908508747061</v>
       </c>
       <c r="AV3">
-        <v>172.8820320525195</v>
+        <v>1759.44357240617</v>
       </c>
       <c r="AW3">
-        <v>144.6885420028464</v>
+        <v>1663.133473983886</v>
       </c>
       <c r="AX3">
-        <v>127.7752210921924</v>
+        <v>1480.518563615703</v>
       </c>
       <c r="AY3">
-        <v>112.086481625237</v>
+        <v>1424.328776305218</v>
       </c>
       <c r="AZ3">
-        <v>108.2666396223983</v>
+        <v>1431.120176219367</v>
       </c>
       <c r="BA3">
-        <v>104.0317944035872</v>
+        <v>1420.827313326862</v>
       </c>
       <c r="BB3">
-        <v>95.92544042042171</v>
+        <v>1321.787679402009</v>
       </c>
       <c r="BC3">
-        <v>92.47881797462286</v>
+        <v>1283.808303629098</v>
       </c>
       <c r="BD3">
-        <v>98.04820704727877</v>
+        <v>1309.083403241719</v>
       </c>
       <c r="BE3">
-        <v>112.5312807693968</v>
+        <v>1382.565090501188</v>
       </c>
       <c r="BF3">
-        <v>132.7557788764257</v>
+        <v>1492.159091203478</v>
       </c>
       <c r="BG3">
-        <v>154.5376759722745</v>
+        <v>1598.998933250416</v>
       </c>
       <c r="BH3">
-        <v>179.9299406267546</v>
+        <v>1768.442986098679</v>
       </c>
       <c r="BI3">
-        <v>199.7157056804084</v>
+        <v>1908.356197956145</v>
       </c>
       <c r="BJ3">
-        <v>209.000254811843</v>
+        <v>2014.459711208558</v>
       </c>
       <c r="BK3">
-        <v>210.9867952989969</v>
+        <v>2115.686506243511</v>
       </c>
       <c r="BL3">
-        <v>208.5549600998418</v>
+        <v>2211.311527201181</v>
       </c>
       <c r="BM3">
-        <v>207.100188853034</v>
+        <v>2331.287029050661</v>
       </c>
       <c r="BN3">
-        <v>205.3433769009481</v>
+        <v>2398.817141530155</v>
       </c>
       <c r="BO3">
-        <v>202.1055465681011</v>
+        <v>2422.918262371277</v>
       </c>
       <c r="BP3">
-        <v>194.0008022967319</v>
+        <v>2408.114323686438</v>
       </c>
       <c r="BQ3">
-        <v>177.8047997872679</v>
+        <v>2334.035268001503</v>
       </c>
       <c r="BR3">
-        <v>159.8061847298764</v>
+        <v>2241.848728516478</v>
       </c>
       <c r="BS3">
-        <v>145.5112580643116</v>
+        <v>2159.773112055431</v>
       </c>
       <c r="BT3">
-        <v>136.3028290767287</v>
+        <v>2122.121418447101</v>
       </c>
       <c r="BU3">
-        <v>131.0199197471981</v>
+        <v>2106.305547126542</v>
       </c>
       <c r="BV3">
-        <v>126.0719077555453</v>
+        <v>2064.828921263432</v>
       </c>
       <c r="BW3">
-        <v>124.3967824950607</v>
+        <v>2037.419488384989</v>
       </c>
       <c r="BX3">
-        <v>128.1329359439135</v>
+        <v>2046.574661066407</v>
       </c>
       <c r="BY3">
-        <v>138.9831072621315</v>
+        <v>2103.155511793916</v>
       </c>
       <c r="BZ3">
-        <v>155.8346581198733</v>
+        <v>2196.249142165374</v>
       </c>
       <c r="CA3">
-        <v>174.8472126521408</v>
+        <v>2299.362808243914</v>
       </c>
       <c r="CB3">
-        <v>195.7849616780102</v>
+        <v>2431.413093872818</v>
       </c>
       <c r="CC3">
-        <v>214.3019624063324</v>
+        <v>2569.288955290196</v>
       </c>
       <c r="CD3">
-        <v>226.8741453674928</v>
+        <v>2693.507324238609</v>
       </c>
       <c r="CE3">
-        <v>232.4833252534179</v>
+        <v>2801.174419672555</v>
       </c>
       <c r="CF3">
-        <v>231.7370100725707</v>
+        <v>2883.713609474263</v>
       </c>
       <c r="CG3">
-        <v>230.0791105143904</v>
+        <v>2976.860519559906</v>
       </c>
       <c r="CH3">
-        <v>227.423563943363</v>
+        <v>3052.121004465198</v>
       </c>
       <c r="CI3">
-        <v>223.1155739846927</v>
+        <v>3090.684555843353</v>
       </c>
       <c r="CJ3">
-        <v>215.6307909824674</v>
+        <v>3087.944531874246</v>
       </c>
       <c r="CK3">
-        <v>202.0909934044935</v>
+        <v>3021.427768870289</v>
       </c>
       <c r="CL3">
-        <v>187.6756186862057</v>
+        <v>2956.393695105288</v>
       </c>
       <c r="CM3">
-        <v>173.8237595551433</v>
+        <v>2889.175549816144</v>
       </c>
       <c r="CN3">
-        <v>163.2148040877349</v>
+        <v>2838.855387258839</v>
       </c>
       <c r="CO3">
-        <v>156.3332129670783</v>
+        <v>2809.158250682271</v>
       </c>
     </row>
     <row r="4" spans="1:93">
@@ -1233,274 +1233,274 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>26474515.04430017</v>
+        <v>1624231.63216313</v>
       </c>
       <c r="E4">
-        <v>26777451.63258485</v>
+        <v>1459073.662060173</v>
       </c>
       <c r="F4">
-        <v>29376626.37716623</v>
+        <v>1273950.194004361</v>
       </c>
       <c r="G4">
-        <v>29468383.74498511</v>
+        <v>1477943.36902231</v>
       </c>
       <c r="H4">
-        <v>26833815.44544359</v>
+        <v>1624319.753844383</v>
       </c>
       <c r="I4">
-        <v>26321234.43343447</v>
+        <v>1544497.383707454</v>
       </c>
       <c r="J4">
-        <v>29030947.35363447</v>
+        <v>1680352.060849354</v>
       </c>
       <c r="K4">
-        <v>32854344.92780009</v>
+        <v>1544436.168252531</v>
       </c>
       <c r="L4">
-        <v>32637305.81751369</v>
+        <v>1539632.871095536</v>
       </c>
       <c r="M4">
-        <v>34730686.68437542</v>
+        <v>2062866.995901499</v>
       </c>
       <c r="N4">
-        <v>37608791.90053114</v>
+        <v>1982943.027974406</v>
       </c>
       <c r="O4">
-        <v>34910588.42242467</v>
+        <v>1977433.528917857</v>
       </c>
       <c r="P4">
-        <v>38765666.32506852</v>
+        <v>9988456.547842357</v>
       </c>
       <c r="Q4">
-        <v>39897193.33955479</v>
+        <v>10023195.69662409</v>
       </c>
       <c r="R4">
-        <v>41031644.50969075</v>
+        <v>10066993.89160123</v>
       </c>
       <c r="S4">
-        <v>45657213.60056385</v>
+        <v>31346275.06732528</v>
       </c>
       <c r="T4">
-        <v>46562253.28773832</v>
+        <v>31433915.53468252</v>
       </c>
       <c r="U4">
-        <v>47462741.43231918</v>
+        <v>31530149.51416759</v>
       </c>
       <c r="V4">
-        <v>48359768.74957957</v>
+        <v>31638377.99001858</v>
       </c>
       <c r="W4">
-        <v>49252649.98255913</v>
+        <v>31750873.53655225</v>
       </c>
       <c r="X4">
-        <v>50421553.57219191</v>
+        <v>32704828.48035093</v>
       </c>
       <c r="Y4">
-        <v>51765273.46774736</v>
+        <v>32824492.49331652</v>
       </c>
       <c r="Z4">
-        <v>53109867.03200106</v>
+        <v>32954320.43234717</v>
       </c>
       <c r="AA4">
-        <v>54454659.3877451</v>
+        <v>33107157.85368811</v>
       </c>
       <c r="AB4">
-        <v>55800593.82280152</v>
+        <v>33320779.99703572</v>
       </c>
       <c r="AC4">
-        <v>54933980.80267396</v>
+        <v>9468832.324206721</v>
       </c>
       <c r="AD4">
-        <v>56281478.04773623</v>
+        <v>9673058.96525364</v>
       </c>
       <c r="AE4">
-        <v>57628554.90684805</v>
+        <v>9958969.055143617</v>
       </c>
       <c r="AF4">
-        <v>58977266.2102018</v>
+        <v>10363442.11038645</v>
       </c>
       <c r="AG4">
-        <v>60330158.87259857</v>
+        <v>10903709.88299207</v>
       </c>
       <c r="AH4">
-        <v>61326769.95929112</v>
+        <v>3537272.854189403</v>
       </c>
       <c r="AI4">
-        <v>62716030.38665632</v>
+        <v>4218104.700964041</v>
       </c>
       <c r="AJ4">
-        <v>64114566.22318041</v>
+        <v>5132784.710285077</v>
       </c>
       <c r="AK4">
-        <v>65517873.3314863</v>
+        <v>6336303.553133288</v>
       </c>
       <c r="AL4">
-        <v>66925294.31594507</v>
+        <v>7658719.240880083</v>
       </c>
       <c r="AM4">
-        <v>68325868.71709569</v>
+        <v>12575064.19504157</v>
       </c>
       <c r="AN4">
-        <v>69732559.21072917</v>
+        <v>14236747.37667488</v>
       </c>
       <c r="AO4">
-        <v>71101352.0485733</v>
+        <v>15392154.17884831</v>
       </c>
       <c r="AP4">
-        <v>72448582.47683044</v>
+        <v>16197544.14648429</v>
       </c>
       <c r="AQ4">
-        <v>73791726.9501071</v>
+        <v>16824539.30872614</v>
       </c>
       <c r="AR4">
-        <v>75115279.07512683</v>
+        <v>22244938.92192476</v>
       </c>
       <c r="AS4">
-        <v>76435809.63841678</v>
+        <v>22426769.69626885</v>
       </c>
       <c r="AT4">
-        <v>77758482.84737636</v>
+        <v>22432344.77237201</v>
       </c>
       <c r="AU4">
-        <v>79075883.44156414</v>
+        <v>22170434.45957157</v>
       </c>
       <c r="AV4">
-        <v>80574703.38516565</v>
+        <v>21479918.30652223</v>
       </c>
       <c r="AW4">
-        <v>81988876.59319182</v>
+        <v>21586428.60223915</v>
       </c>
       <c r="AX4">
-        <v>83448302.91259919</v>
+        <v>20148447.83124886</v>
       </c>
       <c r="AY4">
-        <v>84839049.0581449</v>
+        <v>19247108.95426038</v>
       </c>
       <c r="AZ4">
-        <v>86252550.54884836</v>
+        <v>18668938.98731961</v>
       </c>
       <c r="BA4">
-        <v>87667714.3782149</v>
+        <v>18135964.73553974</v>
       </c>
       <c r="BB4">
-        <v>89130439.99314675</v>
+        <v>16693877.42002903</v>
       </c>
       <c r="BC4">
-        <v>90640958.16830376</v>
+        <v>16358348.92234658</v>
       </c>
       <c r="BD4">
-        <v>92164971.33742468</v>
+        <v>16411290.6745614</v>
       </c>
       <c r="BE4">
-        <v>93699619.90698524</v>
+        <v>16859787.13153049</v>
       </c>
       <c r="BF4">
-        <v>95241300.49958932</v>
+        <v>17628678.29525638</v>
       </c>
       <c r="BG4">
-        <v>96824033.80084758</v>
+        <v>18136395.55408414</v>
       </c>
       <c r="BH4">
-        <v>98450549.43388543</v>
+        <v>19337822.97252246</v>
       </c>
       <c r="BI4">
-        <v>100067016.7079893</v>
+        <v>20426164.20883639</v>
       </c>
       <c r="BJ4">
-        <v>101664700.2552755</v>
+        <v>21313436.11292369</v>
       </c>
       <c r="BK4">
-        <v>103248996.1843876</v>
+        <v>22104398.52028025</v>
       </c>
       <c r="BL4">
-        <v>104846894.7760862</v>
+        <v>22769241.26146564</v>
       </c>
       <c r="BM4">
-        <v>106472833.3237644</v>
+        <v>23485118.69272395</v>
       </c>
       <c r="BN4">
-        <v>108095990.0931329</v>
+        <v>23938826.80892975</v>
       </c>
       <c r="BO4">
-        <v>109714352.4204591</v>
+        <v>24147676.37867076</v>
       </c>
       <c r="BP4">
-        <v>111323224.6778945</v>
+        <v>24106649.21245602</v>
       </c>
       <c r="BQ4">
-        <v>113008379.5291432</v>
+        <v>23766937.46429673</v>
       </c>
       <c r="BR4">
-        <v>114713318.8095747</v>
+        <v>23255493.38590406</v>
       </c>
       <c r="BS4">
-        <v>116428953.5388761</v>
+        <v>22760773.51146401</v>
       </c>
       <c r="BT4">
-        <v>118157014.6488524</v>
+        <v>22513321.53960024</v>
       </c>
       <c r="BU4">
-        <v>119894343.9781059</v>
+        <v>22351329.0666514</v>
       </c>
       <c r="BV4">
-        <v>121693445.0289205</v>
+        <v>22020711.62026272</v>
       </c>
       <c r="BW4">
-        <v>123518368.3360106</v>
+        <v>21829622.16639419</v>
       </c>
       <c r="BX4">
-        <v>125351816.6727316</v>
+        <v>21731740.8172901</v>
       </c>
       <c r="BY4">
-        <v>127194864.4213801</v>
+        <v>21878249.32324607</v>
       </c>
       <c r="BZ4">
-        <v>129045263.8499379</v>
+        <v>22313445.09586127</v>
       </c>
       <c r="CA4">
-        <v>130962581.4082857</v>
+        <v>22690783.6316841</v>
       </c>
       <c r="CB4">
-        <v>132902695.3858533</v>
+        <v>23384246.43121073</v>
       </c>
       <c r="CC4">
-        <v>134838363.1552087</v>
+        <v>24093685.63610317</v>
       </c>
       <c r="CD4">
-        <v>136763291.0727518</v>
+        <v>24720827.75945739</v>
       </c>
       <c r="CE4">
-        <v>138675479.9409528</v>
+        <v>25249065.19402404</v>
       </c>
       <c r="CF4">
-        <v>140642917.8598868</v>
+        <v>25361975.6055549</v>
       </c>
       <c r="CG4">
-        <v>142630096.1497959</v>
+        <v>25798927.501357</v>
       </c>
       <c r="CH4">
-        <v>144613996.5522704</v>
+        <v>26152327.42689518</v>
       </c>
       <c r="CI4">
-        <v>146593588.735285</v>
+        <v>26354895.07236192</v>
       </c>
       <c r="CJ4">
-        <v>148566988.6721251</v>
+        <v>26385418.60247799</v>
       </c>
       <c r="CK4">
-        <v>150583850.3611889</v>
+        <v>25688166.92607189</v>
       </c>
       <c r="CL4">
-        <v>152632372.4604721</v>
+        <v>25445765.98515483</v>
       </c>
       <c r="CM4">
-        <v>154685221.3654053</v>
+        <v>25203945.23176657</v>
       </c>
       <c r="CN4">
-        <v>156747152.6215826</v>
+        <v>25240450.25447715</v>
       </c>
       <c r="CO4">
-        <v>158818344.1697731</v>
+        <v>25263636.51863642</v>
       </c>
     </row>
     <row r="5" spans="1:93">
@@ -1510,274 +1510,274 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>1695270.008317868</v>
+        <v>2150342.287831458</v>
       </c>
       <c r="E5">
-        <v>996788.3920453178</v>
+        <v>1440641.974271039</v>
       </c>
       <c r="F5">
-        <v>500699.4783617422</v>
+        <v>1347505.296692689</v>
       </c>
       <c r="G5">
-        <v>309434.6390578158</v>
+        <v>1300054.160795989</v>
       </c>
       <c r="H5">
-        <v>291350.9020436114</v>
+        <v>1248697.590957441</v>
       </c>
       <c r="I5">
-        <v>210260.0473429782</v>
+        <v>1561555.338495212</v>
       </c>
       <c r="J5">
-        <v>177145.8309287218</v>
+        <v>1721155.079761703</v>
       </c>
       <c r="K5">
-        <v>232045.6389235696</v>
+        <v>1504823.440738923</v>
       </c>
       <c r="L5">
-        <v>414549.3824769554</v>
+        <v>1399739.683168638</v>
       </c>
       <c r="M5">
-        <v>376457.1445355814</v>
+        <v>1573380.696318438</v>
       </c>
       <c r="N5">
-        <v>480319.001296777</v>
+        <v>1665942.493873512</v>
       </c>
       <c r="O5">
-        <v>599912.2837993071</v>
+        <v>2164842.236706811</v>
       </c>
       <c r="P5">
-        <v>3620487.034986918</v>
+        <v>16378591.24583184</v>
       </c>
       <c r="Q5">
-        <v>3723187.209603132</v>
+        <v>16424047.53402485</v>
       </c>
       <c r="R5">
-        <v>3831720.787657478</v>
+        <v>16479176.91262504</v>
       </c>
       <c r="S5">
-        <v>12129579.2527987</v>
+        <v>54346964.6488855</v>
       </c>
       <c r="T5">
-        <v>12405533.67423403</v>
+        <v>54424594.78270073</v>
       </c>
       <c r="U5">
-        <v>12685961.33797061</v>
+        <v>54515909.24284016</v>
       </c>
       <c r="V5">
-        <v>12970084.0773621</v>
+        <v>54624358.80223557</v>
       </c>
       <c r="W5">
-        <v>13257474.77459639</v>
+        <v>54756041.27221797</v>
       </c>
       <c r="X5">
-        <v>12732020.08337051</v>
+        <v>57718536.81828181</v>
       </c>
       <c r="Y5">
-        <v>12790149.16205798</v>
+        <v>57930894.21826693</v>
       </c>
       <c r="Z5">
-        <v>12855620.97644362</v>
+        <v>58211276.97581941</v>
       </c>
       <c r="AA5">
-        <v>12934731.307229</v>
+        <v>58586833.73040961</v>
       </c>
       <c r="AB5">
-        <v>13036612.69174759</v>
+        <v>59092041.333133</v>
       </c>
       <c r="AC5">
-        <v>2882742.376901607</v>
+        <v>18050982.2385872</v>
       </c>
       <c r="AD5">
-        <v>3068390.402897757</v>
+        <v>18947152.81319922</v>
       </c>
       <c r="AE5">
-        <v>3318673.418934481</v>
+        <v>20114987.01544229</v>
       </c>
       <c r="AF5">
-        <v>3648825.286271404</v>
+        <v>21606412.87028313</v>
       </c>
       <c r="AG5">
-        <v>4071701.67415186</v>
+        <v>23467511.3600844</v>
       </c>
       <c r="AH5">
-        <v>2649154.029065201</v>
+        <v>11302348.55064575</v>
       </c>
       <c r="AI5">
-        <v>3276217.147691663</v>
+        <v>13983162.55362317</v>
       </c>
       <c r="AJ5">
-        <v>4000307.268029453</v>
+        <v>17066346.31692331</v>
       </c>
       <c r="AK5">
-        <v>4806264.617485296</v>
+        <v>20503331.46623656</v>
       </c>
       <c r="AL5">
-        <v>5669420.598061334</v>
+        <v>24206744.83627155</v>
       </c>
       <c r="AM5">
-        <v>6556093.969681274</v>
+        <v>33954444.9431968</v>
       </c>
       <c r="AN5">
-        <v>7425146.17665572</v>
+        <v>37775479.49952196</v>
       </c>
       <c r="AO5">
-        <v>8230799.390011024</v>
+        <v>41388379.51436314</v>
       </c>
       <c r="AP5">
-        <v>8926654.668710548</v>
+        <v>44598931.65923947</v>
       </c>
       <c r="AQ5">
-        <v>9470480.067748006</v>
+        <v>47224869.69633757</v>
       </c>
       <c r="AR5">
-        <v>9829189.946016012</v>
+        <v>57320156.34447026</v>
       </c>
       <c r="AS5">
-        <v>9983123.884202126</v>
+        <v>58381128.9502344</v>
       </c>
       <c r="AT5">
-        <v>9928860.293495741</v>
+        <v>58577946.95451663</v>
       </c>
       <c r="AU5">
-        <v>9679936.86646707</v>
+        <v>57946820.16752804</v>
       </c>
       <c r="AV5">
-        <v>10578256.0851294</v>
+        <v>56589380.86632609</v>
       </c>
       <c r="AW5">
-        <v>10411131.58812881</v>
+        <v>57061074.80278982</v>
       </c>
       <c r="AX5">
-        <v>9798098.402636778</v>
+        <v>54759752.54111342</v>
       </c>
       <c r="AY5">
-        <v>9163787.303592339</v>
+        <v>52303276.1516745</v>
       </c>
       <c r="AZ5">
-        <v>8560518.427630113</v>
+        <v>49916084.19110948</v>
       </c>
       <c r="BA5">
-        <v>8035604.102467691</v>
+        <v>47811522.741368</v>
       </c>
       <c r="BB5">
-        <v>7436889.886492215</v>
+        <v>44778578.07696611</v>
       </c>
       <c r="BC5">
-        <v>7172531.173721125</v>
+        <v>43753671.9203819</v>
       </c>
       <c r="BD5">
-        <v>7064330.307442842</v>
+        <v>43427564.2774509</v>
       </c>
       <c r="BE5">
-        <v>7110147.84940218</v>
+        <v>43826305.20715634</v>
       </c>
       <c r="BF5">
-        <v>7294509.915722936</v>
+        <v>44915744.07464153</v>
       </c>
       <c r="BG5">
-        <v>7403595.762942646</v>
+        <v>45839224.2808762</v>
       </c>
       <c r="BH5">
-        <v>7782054.0983746</v>
+        <v>48015217.9722674</v>
       </c>
       <c r="BI5">
-        <v>8208188.795963549</v>
+        <v>50525975.42307957</v>
       </c>
       <c r="BJ5">
-        <v>8649965.82188182</v>
+        <v>53215265.50290768</v>
       </c>
       <c r="BK5">
-        <v>9078997.044594577</v>
+        <v>55928473.75486322</v>
       </c>
       <c r="BL5">
-        <v>9330174.641359743</v>
+        <v>58416481.86613528</v>
       </c>
       <c r="BM5">
-        <v>9668188.670067176</v>
+        <v>60765277.13786559</v>
       </c>
       <c r="BN5">
-        <v>9938722.576660939</v>
+        <v>62770780.24707675</v>
       </c>
       <c r="BO5">
-        <v>10134487.42430446</v>
+        <v>64365743.70098986</v>
       </c>
       <c r="BP5">
-        <v>10253508.6236722</v>
+        <v>65517168.14725734</v>
       </c>
       <c r="BQ5">
-        <v>10199996.36842657</v>
+        <v>66250473.85707876</v>
       </c>
       <c r="BR5">
-        <v>10178422.49376956</v>
+        <v>66550323.99673845</v>
       </c>
       <c r="BS5">
-        <v>10100651.01027495</v>
+        <v>66501171.43601279</v>
       </c>
       <c r="BT5">
-        <v>9979901.0412606</v>
+        <v>66184732.98079249</v>
       </c>
       <c r="BU5">
-        <v>9831282.490524681</v>
+        <v>65697023.58731513</v>
       </c>
       <c r="BV5">
-        <v>9574699.350489851</v>
+        <v>64920872.64169063</v>
       </c>
       <c r="BW5">
-        <v>9419147.751246527</v>
+        <v>64395960.15638418</v>
       </c>
       <c r="BX5">
-        <v>9283880.355556998</v>
+        <v>63993616.83155425</v>
       </c>
       <c r="BY5">
-        <v>9182461.540004762</v>
+        <v>63788696.95229296</v>
       </c>
       <c r="BZ5">
-        <v>9125298.77733266</v>
+        <v>63835367.2169458</v>
       </c>
       <c r="CA5">
-        <v>9017577.862823255</v>
+        <v>63773527.03102232</v>
       </c>
       <c r="CB5">
-        <v>9063076.183272367</v>
+        <v>64391793.46664067</v>
       </c>
       <c r="CC5">
-        <v>9157557.880218158</v>
+        <v>65283119.91111778</v>
       </c>
       <c r="CD5">
-        <v>9293749.59628127</v>
+        <v>66411348.28153522</v>
       </c>
       <c r="CE5">
-        <v>9461264.856859781</v>
+        <v>67724585.55480427</v>
       </c>
       <c r="CF5">
-        <v>9533882.905249216</v>
+        <v>68490080.99300419</v>
       </c>
       <c r="CG5">
-        <v>9726886.857834144</v>
+        <v>69981923.84088589</v>
       </c>
       <c r="CH5">
-        <v>9914165.84750998</v>
+        <v>71463768.92478755</v>
       </c>
       <c r="CI5">
-        <v>10085204.33104728</v>
+        <v>72875808.42453317</v>
       </c>
       <c r="CJ5">
-        <v>10231715.86175467</v>
+        <v>74168260.37855443</v>
       </c>
       <c r="CK5">
-        <v>10192209.42901519</v>
+        <v>74251866.76580735</v>
       </c>
       <c r="CL5">
-        <v>10275414.49629398</v>
+        <v>75208966.13059895</v>
       </c>
       <c r="CM5">
-        <v>10325244.7913761</v>
+        <v>75979725.53791586</v>
       </c>
       <c r="CN5">
-        <v>10343862.78956381</v>
+        <v>76570972.10389829</v>
       </c>
       <c r="CO5">
-        <v>10335450.2667374</v>
+        <v>77002054.73151664</v>
       </c>
     </row>
   </sheetData>
@@ -2080,274 +2080,274 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>262.0317682853503</v>
+        <v>1072.373874491154</v>
       </c>
       <c r="E2">
-        <v>564.6551325096093</v>
+        <v>2470.103994195013</v>
       </c>
       <c r="F2">
-        <v>1064.901390145882</v>
+        <v>3867.135621993375</v>
       </c>
       <c r="G2">
-        <v>1435.536050881256</v>
+        <v>5194.726591405671</v>
       </c>
       <c r="H2">
-        <v>2384.578927351109</v>
+        <v>6975.324365127239</v>
       </c>
       <c r="I2">
-        <v>2929.952808380113</v>
+        <v>8260.050277385511</v>
       </c>
       <c r="J2">
-        <v>3538.678630526794</v>
+        <v>10584.67535746954</v>
       </c>
       <c r="K2">
-        <v>4239.238116679998</v>
+        <v>12896.28496439923</v>
       </c>
       <c r="L2">
-        <v>4798.89666288937</v>
+        <v>14954.69614619681</v>
       </c>
       <c r="M2">
-        <v>5488.512577349256</v>
+        <v>16856.1518580485</v>
       </c>
       <c r="N2">
-        <v>5848.981552595884</v>
+        <v>20926.16284548375</v>
       </c>
       <c r="O2">
-        <v>6258.293856345449</v>
+        <v>23416.59899147138</v>
       </c>
       <c r="P2">
-        <v>7065.023029080574</v>
+        <v>28392.14574832135</v>
       </c>
       <c r="Q2">
-        <v>7870.009616040305</v>
+        <v>33748.33667455192</v>
       </c>
       <c r="R2">
-        <v>8667.047270166677</v>
+        <v>39475.17961008922</v>
       </c>
       <c r="S2">
-        <v>10651.81441072002</v>
+        <v>51986.80847706161</v>
       </c>
       <c r="T2">
-        <v>12653.0382725395</v>
+        <v>65411.58413192143</v>
       </c>
       <c r="U2">
-        <v>14671.23507293249</v>
+        <v>79765.08078268783</v>
       </c>
       <c r="V2">
-        <v>16711.05365352675</v>
+        <v>95074.54321625408</v>
       </c>
       <c r="W2">
-        <v>18774.19796391616</v>
+        <v>111358.9978051305</v>
       </c>
       <c r="X2">
-        <v>20680.98448343597</v>
+        <v>127755.0584788373</v>
       </c>
       <c r="Y2">
-        <v>22615.9723114492</v>
+        <v>145074.1532606044</v>
       </c>
       <c r="Z2">
-        <v>24623.43076752079</v>
+        <v>163331.6832255404</v>
       </c>
       <c r="AA2">
-        <v>26732.37852334009</v>
+        <v>182496.6584495275</v>
       </c>
       <c r="AB2">
-        <v>28954.99760546194</v>
+        <v>202618.9644910934</v>
       </c>
       <c r="AC2">
-        <v>29919.48733551463</v>
+        <v>212281.8004013229</v>
       </c>
       <c r="AD2">
-        <v>30847.94754036833</v>
+        <v>222273.066997655</v>
       </c>
       <c r="AE2">
-        <v>31752.85648775348</v>
+        <v>232646.9274886425</v>
       </c>
       <c r="AF2">
-        <v>32652.29622252816</v>
+        <v>243286.3491793061</v>
       </c>
       <c r="AG2">
-        <v>33525.68923339821</v>
+        <v>254262.0445947788</v>
       </c>
       <c r="AH2">
-        <v>34183.96719807274</v>
+        <v>261776.7043023412</v>
       </c>
       <c r="AI2">
-        <v>34841.32989315335</v>
+        <v>269910.3687876107</v>
       </c>
       <c r="AJ2">
-        <v>35625.58951949011</v>
+        <v>278658.4286555156</v>
       </c>
       <c r="AK2">
-        <v>36610.54277541337</v>
+        <v>288459.0720583612</v>
       </c>
       <c r="AL2">
-        <v>37814.25575770571</v>
+        <v>299663.6483070216</v>
       </c>
       <c r="AM2">
-        <v>39359.85907941365</v>
+        <v>314716.422664727</v>
       </c>
       <c r="AN2">
-        <v>41290.75001375291</v>
+        <v>332234.066694357</v>
       </c>
       <c r="AO2">
-        <v>43373.50709021134</v>
+        <v>351293.6326168687</v>
       </c>
       <c r="AP2">
-        <v>45477.13917398611</v>
+        <v>371338.2978495967</v>
       </c>
       <c r="AQ2">
-        <v>47581.95055100494</v>
+        <v>392246.8470861982</v>
       </c>
       <c r="AR2">
-        <v>49664.70784767997</v>
+        <v>417149.3789950079</v>
       </c>
       <c r="AS2">
-        <v>51722.00329360246</v>
+        <v>442749.0049556862</v>
       </c>
       <c r="AT2">
-        <v>53790.47869631666</v>
+        <v>469049.2015050082</v>
       </c>
       <c r="AU2">
-        <v>55860.77981691104</v>
+        <v>495709.2455723014</v>
       </c>
       <c r="AV2">
-        <v>57833.57651905551</v>
+        <v>521785.3554161526</v>
       </c>
       <c r="AW2">
-        <v>59499.30645834743</v>
+        <v>546471.5341986766</v>
       </c>
       <c r="AX2">
-        <v>60983.11181955157</v>
+        <v>568489.0054596787</v>
       </c>
       <c r="AY2">
-        <v>62296.61138228455</v>
+        <v>589689.2128148925</v>
       </c>
       <c r="AZ2">
-        <v>63569.65274909556</v>
+        <v>610995.9546173288</v>
       </c>
       <c r="BA2">
-        <v>64797.70712391007</v>
+        <v>632156.303645316</v>
       </c>
       <c r="BB2">
-        <v>65938.33171518509</v>
+        <v>651849.3107809608</v>
       </c>
       <c r="BC2">
-        <v>67042.7494521708</v>
+        <v>670981.3814993298</v>
       </c>
       <c r="BD2">
-        <v>68209.60616103128</v>
+        <v>690484.4214168895</v>
       </c>
       <c r="BE2">
-        <v>69536.42469589996</v>
+        <v>711067.4982965925</v>
       </c>
       <c r="BF2">
-        <v>71086.02520428826</v>
+        <v>733261.7497807575</v>
       </c>
       <c r="BG2">
-        <v>72875.33122587859</v>
+        <v>757019.7138238836</v>
       </c>
       <c r="BH2">
-        <v>74944.07425307989</v>
+        <v>783270.2023927753</v>
       </c>
       <c r="BI2">
-        <v>77230.92572568421</v>
+        <v>811578.3311372509</v>
       </c>
       <c r="BJ2">
-        <v>79621.00689990405</v>
+        <v>841445.4551350349</v>
       </c>
       <c r="BK2">
-        <v>82034.47783134045</v>
+        <v>872792.9507242772</v>
       </c>
       <c r="BL2">
-        <v>84422.90822636672</v>
+        <v>905525.9232759237</v>
       </c>
       <c r="BM2">
-        <v>86797.1492945513</v>
+        <v>940019.2364704551</v>
       </c>
       <c r="BN2">
-        <v>89153.88691654798</v>
+        <v>975524.1596382626</v>
       </c>
       <c r="BO2">
-        <v>91476.90863690282</v>
+        <v>1011407.362953329</v>
       </c>
       <c r="BP2">
-        <v>93712.96272194681</v>
+        <v>1047098.483369435</v>
       </c>
       <c r="BQ2">
-        <v>95773.53443604139</v>
+        <v>1081725.580840276</v>
       </c>
       <c r="BR2">
-        <v>97639.01974367126</v>
+        <v>1115022.573987478</v>
       </c>
       <c r="BS2">
-        <v>99349.93510555352</v>
+        <v>1147129.371561302</v>
       </c>
       <c r="BT2">
-        <v>100961.9250019908</v>
+        <v>1178690.461047791</v>
       </c>
       <c r="BU2">
-        <v>102517.9333838883</v>
+        <v>1210021.203218304</v>
       </c>
       <c r="BV2">
-        <v>104021.6172746611</v>
+        <v>1240737.976592153</v>
       </c>
       <c r="BW2">
-        <v>105508.8986563333</v>
+        <v>1271048.653551556</v>
       </c>
       <c r="BX2">
-        <v>107038.9761190305</v>
+        <v>1301490.369029687</v>
       </c>
       <c r="BY2">
-        <v>108689.674728892</v>
+        <v>1332759.19812647</v>
       </c>
       <c r="BZ2">
-        <v>110526.6483727005</v>
+        <v>1365389.274058155</v>
       </c>
       <c r="CA2">
-        <v>112573.5323563566</v>
+        <v>1399520.780259208</v>
       </c>
       <c r="CB2">
-        <v>114851.5141016405</v>
+        <v>1435574.225257444</v>
       </c>
       <c r="CC2">
-        <v>117334.1163019627</v>
+        <v>1473628.220825505</v>
       </c>
       <c r="CD2">
-        <v>119956.3085555797</v>
+        <v>1513488.660499101</v>
       </c>
       <c r="CE2">
-        <v>122641.9204827277</v>
+        <v>1554934.759518503</v>
       </c>
       <c r="CF2">
-        <v>125321.4166516326</v>
+        <v>1597609.905986084</v>
       </c>
       <c r="CG2">
-        <v>127984.9609708858</v>
+        <v>1641679.442704239</v>
       </c>
       <c r="CH2">
-        <v>130621.6370046681</v>
+        <v>1686884.900570528</v>
       </c>
       <c r="CI2">
-        <v>133213.3640951401</v>
+        <v>1732689.532975835</v>
       </c>
       <c r="CJ2">
-        <v>135725.3857954604</v>
+        <v>1778483.637750906</v>
       </c>
       <c r="CK2">
-        <v>138091.3924575163</v>
+        <v>1823317.967548872</v>
       </c>
       <c r="CL2">
-        <v>140301.9925022341</v>
+        <v>1867212.553726616</v>
       </c>
       <c r="CM2">
-        <v>142363.3512392509</v>
+        <v>1910129.904158299</v>
       </c>
       <c r="CN2">
-        <v>144310.9459219086</v>
+        <v>1952313.386092586</v>
       </c>
       <c r="CO2">
-        <v>146185.5532548727</v>
+        <v>1994061.376310165</v>
       </c>
     </row>
     <row r="3" spans="1:93">
@@ -2357,274 +2357,274 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>16.49093896605874</v>
+        <v>70.91124739014684</v>
       </c>
       <c r="E3">
-        <v>35.65073761100844</v>
+        <v>163.6162489721914</v>
       </c>
       <c r="F3">
-        <v>67.96464116507053</v>
+        <v>256.1560745195231</v>
       </c>
       <c r="G3">
-        <v>91.57425867157829</v>
+        <v>344.0309183196886</v>
       </c>
       <c r="H3">
-        <v>154.1310111324799</v>
+        <v>462.4293360593346</v>
       </c>
       <c r="I3">
-        <v>189.5642424267885</v>
+        <v>547.5113847302421</v>
       </c>
       <c r="J3">
-        <v>229.1399658843546</v>
+        <v>702.3244623356877</v>
       </c>
       <c r="K3">
-        <v>274.730578063702</v>
+        <v>856.1114137895169</v>
       </c>
       <c r="L3">
-        <v>310.9032414839083</v>
+        <v>992.9394500470544</v>
       </c>
       <c r="M3">
-        <v>355.7328940778896</v>
+        <v>1119.154640653648</v>
       </c>
       <c r="N3">
-        <v>378.3113355558298</v>
+        <v>1390.937251561584</v>
       </c>
       <c r="O3">
-        <v>404.3196783494578</v>
+        <v>1556.767226332409</v>
       </c>
       <c r="P3">
-        <v>456.9402903143043</v>
+        <v>1889.389467981703</v>
       </c>
       <c r="Q3">
-        <v>511.8034967773438</v>
+        <v>2247.549787884965</v>
       </c>
       <c r="R3">
-        <v>568.4200263133172</v>
+        <v>2630.586261873998</v>
       </c>
       <c r="S3">
-        <v>719.0306810341174</v>
+        <v>3469.156426930557</v>
       </c>
       <c r="T3">
-        <v>877.2348791842491</v>
+        <v>4369.040540790955</v>
       </c>
       <c r="U3">
-        <v>1043.169783352413</v>
+        <v>5331.288175232789</v>
       </c>
       <c r="V3">
-        <v>1217.34158362004</v>
+        <v>6357.749087534314</v>
       </c>
       <c r="W3">
-        <v>1400.034440422538</v>
+        <v>7449.704266310908</v>
       </c>
       <c r="X3">
-        <v>1568.459833255401</v>
+        <v>8549.134528203287</v>
       </c>
       <c r="Y3">
-        <v>1739.355738081839</v>
+        <v>9710.577070666681</v>
       </c>
       <c r="Z3">
-        <v>1916.769464295179</v>
+        <v>10935.08713908554</v>
       </c>
       <c r="AA3">
-        <v>2103.353992859407</v>
+        <v>12220.64574946141</v>
       </c>
       <c r="AB3">
-        <v>2300.222760139803</v>
+        <v>13570.61275764301</v>
       </c>
       <c r="AC3">
-        <v>2383.03400248439</v>
+        <v>14218.17013117832</v>
       </c>
       <c r="AD3">
-        <v>2462.439749387203</v>
+        <v>14887.68162046778</v>
       </c>
       <c r="AE3">
-        <v>2539.580296672582</v>
+        <v>15582.93398957224</v>
       </c>
       <c r="AF3">
-        <v>2616.107905805845</v>
+        <v>16296.12736574218</v>
       </c>
       <c r="AG3">
-        <v>2690.13983921289</v>
+        <v>17031.86165445333</v>
       </c>
       <c r="AH3">
-        <v>2744.537485080366</v>
+        <v>17535.32573669418</v>
       </c>
       <c r="AI3">
-        <v>2798.730584597432</v>
+        <v>18080.59368482947</v>
       </c>
       <c r="AJ3">
-        <v>2864.402835327074</v>
+        <v>18667.55678172069</v>
       </c>
       <c r="AK3">
-        <v>2948.300033030118</v>
+        <v>19325.89465144644</v>
       </c>
       <c r="AL3">
-        <v>3052.072917942216</v>
+        <v>20079.37673105566</v>
       </c>
       <c r="AM3">
-        <v>3186.97610246842</v>
+        <v>21092.62871646857</v>
       </c>
       <c r="AN3">
-        <v>3356.976811727641</v>
+        <v>22273.04468813616</v>
       </c>
       <c r="AO3">
-        <v>3540.738569288927</v>
+        <v>23557.92443286797</v>
       </c>
       <c r="AP3">
-        <v>3726.288548333064</v>
+        <v>24909.42328995916</v>
       </c>
       <c r="AQ3">
-        <v>3911.827923922879</v>
+        <v>26319.34293402779</v>
       </c>
       <c r="AR3">
-        <v>4095.23144763714</v>
+        <v>27997.85239083469</v>
       </c>
       <c r="AS3">
-        <v>4276.189863946525</v>
+        <v>29723.62812149857</v>
       </c>
       <c r="AT3">
-        <v>4458.055038940336</v>
+        <v>31497.64258320541</v>
       </c>
       <c r="AU3">
-        <v>4639.974198137672</v>
+        <v>33297.55109195247</v>
       </c>
       <c r="AV3">
-        <v>4812.856230190191</v>
+        <v>35056.99466435864</v>
       </c>
       <c r="AW3">
-        <v>4957.544772193038</v>
+        <v>36720.12813834253</v>
       </c>
       <c r="AX3">
-        <v>5085.31999328523</v>
+        <v>38200.64670195823</v>
       </c>
       <c r="AY3">
-        <v>5197.406474910467</v>
+        <v>39624.97547826346</v>
       </c>
       <c r="AZ3">
-        <v>5305.673114532866</v>
+        <v>41056.09565448282</v>
       </c>
       <c r="BA3">
-        <v>5409.704908936453</v>
+        <v>42476.92296780968</v>
       </c>
       <c r="BB3">
-        <v>5505.630349356875</v>
+        <v>43798.71064721169</v>
       </c>
       <c r="BC3">
-        <v>5598.109167331498</v>
+        <v>45082.51895084079</v>
       </c>
       <c r="BD3">
-        <v>5696.157374378777</v>
+        <v>46391.6023540825</v>
       </c>
       <c r="BE3">
-        <v>5808.688655148174</v>
+        <v>47774.16744458369</v>
       </c>
       <c r="BF3">
-        <v>5941.4444340246</v>
+        <v>49266.32653578717</v>
       </c>
       <c r="BG3">
-        <v>6095.982109996875</v>
+        <v>50865.32546903759</v>
       </c>
       <c r="BH3">
-        <v>6275.91205062363</v>
+        <v>52633.76845513627</v>
       </c>
       <c r="BI3">
-        <v>6475.627756304038</v>
+        <v>54542.12465309241</v>
       </c>
       <c r="BJ3">
-        <v>6684.62801111588</v>
+        <v>56556.58436430097</v>
       </c>
       <c r="BK3">
-        <v>6895.614806414877</v>
+        <v>58672.27087054448</v>
       </c>
       <c r="BL3">
-        <v>7104.169766514719</v>
+        <v>60883.58239774566</v>
       </c>
       <c r="BM3">
-        <v>7311.269955367753</v>
+        <v>63214.86942679632</v>
       </c>
       <c r="BN3">
-        <v>7516.613332268701</v>
+        <v>65613.68656832648</v>
       </c>
       <c r="BO3">
-        <v>7718.718878836802</v>
+        <v>68036.60483069776</v>
       </c>
       <c r="BP3">
-        <v>7912.719681133534</v>
+        <v>70444.71915438421</v>
       </c>
       <c r="BQ3">
-        <v>8090.524480920802</v>
+        <v>72778.75442238571</v>
       </c>
       <c r="BR3">
-        <v>8250.330665650679</v>
+        <v>75020.60315090219</v>
       </c>
       <c r="BS3">
-        <v>8395.84192371499</v>
+        <v>77180.37626295762</v>
       </c>
       <c r="BT3">
-        <v>8532.144752791719</v>
+        <v>79302.49768140473</v>
       </c>
       <c r="BU3">
-        <v>8663.164672538916</v>
+        <v>81408.80322853127</v>
       </c>
       <c r="BV3">
-        <v>8789.236580294462</v>
+        <v>83473.63214979469</v>
       </c>
       <c r="BW3">
-        <v>8913.633362789524</v>
+        <v>85511.05163817968</v>
       </c>
       <c r="BX3">
-        <v>9041.766298733437</v>
+        <v>87557.62629924608</v>
       </c>
       <c r="BY3">
-        <v>9180.749405995568</v>
+        <v>89660.78181104</v>
       </c>
       <c r="BZ3">
-        <v>9336.584064115441</v>
+        <v>91857.03095320537</v>
       </c>
       <c r="CA3">
-        <v>9511.431276767582</v>
+        <v>94156.39376144928</v>
       </c>
       <c r="CB3">
-        <v>9707.216238445591</v>
+        <v>96587.80685532209</v>
       </c>
       <c r="CC3">
-        <v>9921.518200851924</v>
+        <v>99157.09581061229</v>
       </c>
       <c r="CD3">
-        <v>10148.39234621942</v>
+        <v>101850.6031348509</v>
       </c>
       <c r="CE3">
-        <v>10380.87567147283</v>
+        <v>104651.7775545234</v>
       </c>
       <c r="CF3">
-        <v>10612.6126815454</v>
+        <v>107535.4911639977</v>
       </c>
       <c r="CG3">
-        <v>10842.6917920598</v>
+        <v>110512.3516835576</v>
       </c>
       <c r="CH3">
-        <v>11070.11535600316</v>
+        <v>113564.4726880228</v>
       </c>
       <c r="CI3">
-        <v>11293.23092998785</v>
+        <v>116655.1572438662</v>
       </c>
       <c r="CJ3">
-        <v>11508.86172097032</v>
+        <v>119743.1017757404</v>
       </c>
       <c r="CK3">
-        <v>11710.95271437481</v>
+        <v>122764.5295446107</v>
       </c>
       <c r="CL3">
-        <v>11898.62833306102</v>
+        <v>125720.923239716</v>
       </c>
       <c r="CM3">
-        <v>12072.45209261616</v>
+        <v>128610.0987895321</v>
       </c>
       <c r="CN3">
-        <v>12235.6668967039</v>
+        <v>131448.954176791</v>
       </c>
       <c r="CO3">
-        <v>12392.00010967097</v>
+        <v>134258.1124274732</v>
       </c>
     </row>
     <row r="4" spans="1:93">
@@ -2634,274 +2634,274 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>26474515.04430017</v>
+        <v>1624231.63216313</v>
       </c>
       <c r="E4">
-        <v>53251966.67688502</v>
+        <v>3083305.294223303</v>
       </c>
       <c r="F4">
-        <v>82628593.05405125</v>
+        <v>4357255.488227664</v>
       </c>
       <c r="G4">
-        <v>112096976.7990364</v>
+        <v>5835198.857249973</v>
       </c>
       <c r="H4">
-        <v>138930792.24448</v>
+        <v>7459518.611094356</v>
       </c>
       <c r="I4">
-        <v>165252026.6779144</v>
+        <v>9004015.99480181</v>
       </c>
       <c r="J4">
-        <v>194282974.0315489</v>
+        <v>10684368.05565116</v>
       </c>
       <c r="K4">
-        <v>227137318.959349</v>
+        <v>12228804.2239037</v>
       </c>
       <c r="L4">
-        <v>259774624.7768627</v>
+        <v>13768437.09499923</v>
       </c>
       <c r="M4">
-        <v>294505311.4612381</v>
+        <v>15831304.09090073</v>
       </c>
       <c r="N4">
-        <v>332114103.3617692</v>
+        <v>17814247.11887513</v>
       </c>
       <c r="O4">
-        <v>367024691.7841939</v>
+        <v>19791680.64779299</v>
       </c>
       <c r="P4">
-        <v>405790358.1092624</v>
+        <v>29780137.19563535</v>
       </c>
       <c r="Q4">
-        <v>445687551.4488172</v>
+        <v>39803332.89225943</v>
       </c>
       <c r="R4">
-        <v>486719195.958508</v>
+        <v>49870326.78386066</v>
       </c>
       <c r="S4">
-        <v>532376409.5590718</v>
+        <v>81216601.85118595</v>
       </c>
       <c r="T4">
-        <v>578938662.8468101</v>
+        <v>112650517.3858685</v>
       </c>
       <c r="U4">
-        <v>626401404.2791293</v>
+        <v>144180666.9000361</v>
       </c>
       <c r="V4">
-        <v>674761173.0287088</v>
+        <v>175819044.8900546</v>
       </c>
       <c r="W4">
-        <v>724013823.0112679</v>
+        <v>207569918.4266069</v>
       </c>
       <c r="X4">
-        <v>774435376.5834599</v>
+        <v>240274746.9069578</v>
       </c>
       <c r="Y4">
-        <v>826200650.0512072</v>
+        <v>273099239.4002743</v>
       </c>
       <c r="Z4">
-        <v>879310517.0832082</v>
+        <v>306053559.8326215</v>
       </c>
       <c r="AA4">
-        <v>933765176.4709533</v>
+        <v>339160717.6863096</v>
       </c>
       <c r="AB4">
-        <v>989565770.2937548</v>
+        <v>372481497.6833454</v>
       </c>
       <c r="AC4">
-        <v>1044499751.096429</v>
+        <v>381950330.0075521</v>
       </c>
       <c r="AD4">
-        <v>1100781229.144165</v>
+        <v>391623388.9728057</v>
       </c>
       <c r="AE4">
-        <v>1158409784.051013</v>
+        <v>401582358.0279493</v>
       </c>
       <c r="AF4">
-        <v>1217387050.261215</v>
+        <v>411945800.1383358</v>
       </c>
       <c r="AG4">
-        <v>1277717209.133813</v>
+        <v>422849510.0213279</v>
       </c>
       <c r="AH4">
-        <v>1339043979.093105</v>
+        <v>426386782.8755172</v>
       </c>
       <c r="AI4">
-        <v>1401760009.479761</v>
+        <v>430604887.5764813</v>
       </c>
       <c r="AJ4">
-        <v>1465874575.702941</v>
+        <v>435737672.2867664</v>
       </c>
       <c r="AK4">
-        <v>1531392449.034428</v>
+        <v>442073975.8398997</v>
       </c>
       <c r="AL4">
-        <v>1598317743.350373</v>
+        <v>449732695.0807797</v>
       </c>
       <c r="AM4">
-        <v>1666643612.067468</v>
+        <v>462307759.2758213</v>
       </c>
       <c r="AN4">
-        <v>1736376171.278198</v>
+        <v>476544506.6524962</v>
       </c>
       <c r="AO4">
-        <v>1807477523.326771</v>
+        <v>491936660.8313445</v>
       </c>
       <c r="AP4">
-        <v>1879926105.803601</v>
+        <v>508134204.9778289</v>
       </c>
       <c r="AQ4">
-        <v>1953717832.753708</v>
+        <v>524958744.286555</v>
       </c>
       <c r="AR4">
-        <v>2028833111.828835</v>
+        <v>547203683.2084798</v>
       </c>
       <c r="AS4">
-        <v>2105268921.467252</v>
+        <v>569630452.9047486</v>
       </c>
       <c r="AT4">
-        <v>2183027404.314629</v>
+        <v>592062797.6771206</v>
       </c>
       <c r="AU4">
-        <v>2262103287.756193</v>
+        <v>614233232.1366922</v>
       </c>
       <c r="AV4">
-        <v>2342677991.141358</v>
+        <v>635713150.4432144</v>
       </c>
       <c r="AW4">
-        <v>2424666867.73455</v>
+        <v>657299579.0454535</v>
       </c>
       <c r="AX4">
-        <v>2508115170.647149</v>
+        <v>677448026.8767024</v>
       </c>
       <c r="AY4">
-        <v>2592954219.705294</v>
+        <v>696695135.8309628</v>
       </c>
       <c r="AZ4">
-        <v>2679206770.254142</v>
+        <v>715364074.8182824</v>
       </c>
       <c r="BA4">
-        <v>2766874484.632357</v>
+        <v>733500039.5538222</v>
       </c>
       <c r="BB4">
-        <v>2856004924.625504</v>
+        <v>750193916.9738512</v>
       </c>
       <c r="BC4">
-        <v>2946645882.793808</v>
+        <v>766552265.8961978</v>
       </c>
       <c r="BD4">
-        <v>3038810854.131233</v>
+        <v>782963556.5707592</v>
       </c>
       <c r="BE4">
-        <v>3132510474.038218</v>
+        <v>799823343.7022897</v>
       </c>
       <c r="BF4">
-        <v>3227751774.537807</v>
+        <v>817452021.9975461</v>
       </c>
       <c r="BG4">
-        <v>3324575808.338655</v>
+        <v>835588417.5516303</v>
       </c>
       <c r="BH4">
-        <v>3423026357.772541</v>
+        <v>854926240.5241528</v>
       </c>
       <c r="BI4">
-        <v>3523093374.48053</v>
+        <v>875352404.7329892</v>
       </c>
       <c r="BJ4">
-        <v>3624758074.735806</v>
+        <v>896665840.8459129</v>
       </c>
       <c r="BK4">
-        <v>3728007070.920193</v>
+        <v>918770239.3661932</v>
       </c>
       <c r="BL4">
-        <v>3832853965.69628</v>
+        <v>941539480.6276588</v>
       </c>
       <c r="BM4">
-        <v>3939326799.020044</v>
+        <v>965024599.3203828</v>
       </c>
       <c r="BN4">
-        <v>4047422789.113177</v>
+        <v>988963426.1293126</v>
       </c>
       <c r="BO4">
-        <v>4157137141.533636</v>
+        <v>1013111102.507983</v>
       </c>
       <c r="BP4">
-        <v>4268460366.211531</v>
+        <v>1037217751.720439</v>
       </c>
       <c r="BQ4">
-        <v>4381468745.740674</v>
+        <v>1060984689.184736</v>
       </c>
       <c r="BR4">
-        <v>4496182064.550249</v>
+        <v>1084240182.57064</v>
       </c>
       <c r="BS4">
-        <v>4612611018.089126</v>
+        <v>1107000956.082104</v>
       </c>
       <c r="BT4">
-        <v>4730768032.737978</v>
+        <v>1129514277.621704</v>
       </c>
       <c r="BU4">
-        <v>4850662376.716084</v>
+        <v>1151865606.688356</v>
       </c>
       <c r="BV4">
-        <v>4972355821.745004</v>
+        <v>1173886318.308618</v>
       </c>
       <c r="BW4">
-        <v>5095874190.081015</v>
+        <v>1195715940.475013</v>
       </c>
       <c r="BX4">
-        <v>5221226006.753746</v>
+        <v>1217447681.292303</v>
       </c>
       <c r="BY4">
-        <v>5348420871.175126</v>
+        <v>1239325930.615549</v>
       </c>
       <c r="BZ4">
-        <v>5477466135.025064</v>
+        <v>1261639375.71141</v>
       </c>
       <c r="CA4">
-        <v>5608428716.43335</v>
+        <v>1284330159.343094</v>
       </c>
       <c r="CB4">
-        <v>5741331411.819202</v>
+        <v>1307714405.774305</v>
       </c>
       <c r="CC4">
-        <v>5876169774.974411</v>
+        <v>1331808091.410408</v>
       </c>
       <c r="CD4">
-        <v>6012933066.047163</v>
+        <v>1356528919.169865</v>
       </c>
       <c r="CE4">
-        <v>6151608545.988115</v>
+        <v>1381777984.363889</v>
       </c>
       <c r="CF4">
-        <v>6292251463.848002</v>
+        <v>1407139959.969444</v>
       </c>
       <c r="CG4">
-        <v>6434881559.997798</v>
+        <v>1432938887.470801</v>
       </c>
       <c r="CH4">
-        <v>6579495556.550068</v>
+        <v>1459091214.897696</v>
       </c>
       <c r="CI4">
-        <v>6726089145.285353</v>
+        <v>1485446109.970058</v>
       </c>
       <c r="CJ4">
-        <v>6874656133.957478</v>
+        <v>1511831528.572536</v>
       </c>
       <c r="CK4">
-        <v>7025239984.318666</v>
+        <v>1537519695.498608</v>
       </c>
       <c r="CL4">
-        <v>7177872356.779139</v>
+        <v>1562965461.483763</v>
       </c>
       <c r="CM4">
-        <v>7332557578.144544</v>
+        <v>1588169406.715529</v>
       </c>
       <c r="CN4">
-        <v>7489304730.766127</v>
+        <v>1613409856.970007</v>
       </c>
       <c r="CO4">
-        <v>7648123074.9359</v>
+        <v>1638673493.488643</v>
       </c>
     </row>
     <row r="5" spans="1:93">
@@ -2911,274 +2911,274 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>1695270.008317868</v>
+        <v>2150342.287831458</v>
       </c>
       <c r="E5">
-        <v>2692058.400363186</v>
+        <v>3590984.262102497</v>
       </c>
       <c r="F5">
-        <v>3192757.878724928</v>
+        <v>4938489.558795186</v>
       </c>
       <c r="G5">
-        <v>3502192.517782744</v>
+        <v>6238543.719591174</v>
       </c>
       <c r="H5">
-        <v>3793543.419826355</v>
+        <v>7487241.310548615</v>
       </c>
       <c r="I5">
-        <v>4003803.467169333</v>
+        <v>9048796.649043826</v>
       </c>
       <c r="J5">
-        <v>4180949.298098055</v>
+        <v>10769951.72880553</v>
       </c>
       <c r="K5">
-        <v>4412994.937021624</v>
+        <v>12274775.16954445</v>
       </c>
       <c r="L5">
-        <v>4827544.31949858</v>
+        <v>13674514.85271309</v>
       </c>
       <c r="M5">
-        <v>5204001.464034162</v>
+        <v>15247895.54903153</v>
       </c>
       <c r="N5">
-        <v>5684320.465330939</v>
+        <v>16913838.04290504</v>
       </c>
       <c r="O5">
-        <v>6284232.749130246</v>
+        <v>19078680.27961185</v>
       </c>
       <c r="P5">
-        <v>9904719.784117164</v>
+        <v>35457271.52544369</v>
       </c>
       <c r="Q5">
-        <v>13627906.9937203</v>
+        <v>51881319.05946854</v>
       </c>
       <c r="R5">
-        <v>17459627.78137777</v>
+        <v>68360495.97209358</v>
       </c>
       <c r="S5">
-        <v>29589207.03417648</v>
+        <v>122707460.6209791</v>
       </c>
       <c r="T5">
-        <v>41994740.7084105</v>
+        <v>177132055.4036798</v>
       </c>
       <c r="U5">
-        <v>54680702.04638111</v>
+        <v>231647964.64652</v>
       </c>
       <c r="V5">
-        <v>67650786.12374321</v>
+        <v>286272323.4487555</v>
       </c>
       <c r="W5">
-        <v>80908260.8983396</v>
+        <v>341028364.7209735</v>
       </c>
       <c r="X5">
-        <v>93640280.98171011</v>
+        <v>398746901.5392553</v>
       </c>
       <c r="Y5">
-        <v>106430430.1437681</v>
+        <v>456677795.7575222</v>
       </c>
       <c r="Z5">
-        <v>119286051.1202117</v>
+        <v>514889072.7333416</v>
       </c>
       <c r="AA5">
-        <v>132220782.4274407</v>
+        <v>573475906.4637512</v>
       </c>
       <c r="AB5">
-        <v>145257395.1191883</v>
+        <v>632567947.7968842</v>
       </c>
       <c r="AC5">
-        <v>148140137.4960899</v>
+        <v>650618930.0354714</v>
       </c>
       <c r="AD5">
-        <v>151208527.8989876</v>
+        <v>669566082.8486706</v>
       </c>
       <c r="AE5">
-        <v>154527201.3179221</v>
+        <v>689681069.8641129</v>
       </c>
       <c r="AF5">
-        <v>158176026.6041935</v>
+        <v>711287482.734396</v>
       </c>
       <c r="AG5">
-        <v>162247728.2783454</v>
+        <v>734754994.0944804</v>
       </c>
       <c r="AH5">
-        <v>164896882.3074106</v>
+        <v>746057342.6451261</v>
       </c>
       <c r="AI5">
-        <v>168173099.4551022</v>
+        <v>760040505.1987493</v>
       </c>
       <c r="AJ5">
-        <v>172173406.7231317</v>
+        <v>777106851.5156726</v>
       </c>
       <c r="AK5">
-        <v>176979671.340617</v>
+        <v>797610182.9819092</v>
       </c>
       <c r="AL5">
-        <v>182649091.9386783</v>
+        <v>821816927.8181807</v>
       </c>
       <c r="AM5">
-        <v>189205185.9083596</v>
+        <v>855771372.7613775</v>
       </c>
       <c r="AN5">
-        <v>196630332.0850153</v>
+        <v>893546852.2608994</v>
       </c>
       <c r="AO5">
-        <v>204861131.4750263</v>
+        <v>934935231.7752626</v>
       </c>
       <c r="AP5">
-        <v>213787786.1437368</v>
+        <v>979534163.4345021</v>
       </c>
       <c r="AQ5">
-        <v>223258266.2114848</v>
+        <v>1026759033.13084</v>
       </c>
       <c r="AR5">
-        <v>233087456.1575009</v>
+        <v>1084079189.47531</v>
       </c>
       <c r="AS5">
-        <v>243070580.041703</v>
+        <v>1142460318.425544</v>
       </c>
       <c r="AT5">
-        <v>252999440.3351987</v>
+        <v>1201038265.380061</v>
       </c>
       <c r="AU5">
-        <v>262679377.2016658</v>
+        <v>1258985085.547589</v>
       </c>
       <c r="AV5">
-        <v>273257633.2867952</v>
+        <v>1315574466.413915</v>
       </c>
       <c r="AW5">
-        <v>283668764.874924</v>
+        <v>1372635541.216705</v>
       </c>
       <c r="AX5">
-        <v>293466863.2775608</v>
+        <v>1427395293.757818</v>
       </c>
       <c r="AY5">
-        <v>302630650.5811531</v>
+        <v>1479698569.909493</v>
       </c>
       <c r="AZ5">
-        <v>311191169.0087832</v>
+        <v>1529614654.100602</v>
       </c>
       <c r="BA5">
-        <v>319226773.1112509</v>
+        <v>1577426176.84197</v>
       </c>
       <c r="BB5">
-        <v>326663662.9977431</v>
+        <v>1622204754.918936</v>
       </c>
       <c r="BC5">
-        <v>333836194.1714643</v>
+        <v>1665958426.839318</v>
       </c>
       <c r="BD5">
-        <v>340900524.4789071</v>
+        <v>1709385991.116769</v>
       </c>
       <c r="BE5">
-        <v>348010672.3283093</v>
+        <v>1753212296.323925</v>
       </c>
       <c r="BF5">
-        <v>355305182.2440323</v>
+        <v>1798128040.398567</v>
       </c>
       <c r="BG5">
-        <v>362708778.0069749</v>
+        <v>1843967264.679443</v>
       </c>
       <c r="BH5">
-        <v>370490832.1053495</v>
+        <v>1891982482.651711</v>
       </c>
       <c r="BI5">
-        <v>378699020.9013131</v>
+        <v>1942508458.07479</v>
       </c>
       <c r="BJ5">
-        <v>387348986.7231949</v>
+        <v>1995723723.577698</v>
       </c>
       <c r="BK5">
-        <v>396427983.7677895</v>
+        <v>2051652197.332561</v>
       </c>
       <c r="BL5">
-        <v>405758158.4091492</v>
+        <v>2110068679.198696</v>
       </c>
       <c r="BM5">
-        <v>415426347.0792164</v>
+        <v>2170833956.336562</v>
       </c>
       <c r="BN5">
-        <v>425365069.6558774</v>
+        <v>2233604736.583639</v>
       </c>
       <c r="BO5">
-        <v>435499557.0801818</v>
+        <v>2297970480.284629</v>
       </c>
       <c r="BP5">
-        <v>445753065.703854</v>
+        <v>2363487648.431886</v>
       </c>
       <c r="BQ5">
-        <v>455953062.0722806</v>
+        <v>2429738122.288965</v>
       </c>
       <c r="BR5">
-        <v>466131484.5660502</v>
+        <v>2496288446.285703</v>
       </c>
       <c r="BS5">
-        <v>476232135.5763251</v>
+        <v>2562789617.721716</v>
       </c>
       <c r="BT5">
-        <v>486212036.6175857</v>
+        <v>2628974350.702508</v>
       </c>
       <c r="BU5">
-        <v>496043319.1081104</v>
+        <v>2694671374.289824</v>
       </c>
       <c r="BV5">
-        <v>505618018.4586003</v>
+        <v>2759592246.931514</v>
       </c>
       <c r="BW5">
-        <v>515037166.2098468</v>
+        <v>2823988207.087898</v>
       </c>
       <c r="BX5">
-        <v>524321046.5654038</v>
+        <v>2887981823.919453</v>
       </c>
       <c r="BY5">
-        <v>533503508.1054086</v>
+        <v>2951770520.871746</v>
       </c>
       <c r="BZ5">
-        <v>542628806.8827412</v>
+        <v>3015605888.088691</v>
       </c>
       <c r="CA5">
-        <v>551646384.7455645</v>
+        <v>3079379415.119714</v>
       </c>
       <c r="CB5">
-        <v>560709460.9288368</v>
+        <v>3143771208.586354</v>
       </c>
       <c r="CC5">
-        <v>569867018.809055</v>
+        <v>3209054328.497472</v>
       </c>
       <c r="CD5">
-        <v>579160768.4053363</v>
+        <v>3275465676.779007</v>
       </c>
       <c r="CE5">
-        <v>588622033.2621961</v>
+        <v>3343190262.333811</v>
       </c>
       <c r="CF5">
-        <v>598155916.1674453</v>
+        <v>3411680343.326816</v>
       </c>
       <c r="CG5">
-        <v>607882803.0252794</v>
+        <v>3481662267.167702</v>
       </c>
       <c r="CH5">
-        <v>617796968.8727894</v>
+        <v>3553126036.092489</v>
       </c>
       <c r="CI5">
-        <v>627882173.2038367</v>
+        <v>3626001844.517023</v>
       </c>
       <c r="CJ5">
-        <v>638113889.0655913</v>
+        <v>3700170104.895577</v>
       </c>
       <c r="CK5">
-        <v>648306098.4946065</v>
+        <v>3774421971.661384</v>
       </c>
       <c r="CL5">
-        <v>658581512.9909005</v>
+        <v>3849630937.791983</v>
       </c>
       <c r="CM5">
-        <v>668906757.7822766</v>
+        <v>3925610663.329899</v>
       </c>
       <c r="CN5">
-        <v>679250620.5718404</v>
+        <v>4002181635.433797</v>
       </c>
       <c r="CO5">
-        <v>689586070.8385779</v>
+        <v>4079183690.165314</v>
       </c>
     </row>
   </sheetData>
